--- a/Today in history.xlsx
+++ b/Today in history.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\kushan\ICP\suraj_work\apis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682EE27F-CB2F-42DE-95F5-3AEC0A8E386E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D7C14A-CFF6-4BEF-8118-A3F719D3B9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$461</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="1310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="1314">
   <si>
     <t>Today in History - Date(DD-MMM-YYYY)</t>
   </si>
@@ -4175,6 +4178,18 @@
   </si>
   <si>
     <t>26-Sep-1820</t>
+  </si>
+  <si>
+    <t>"Not  Available"</t>
+  </si>
+  <si>
+    <t>Not  Available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Not Avialble"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Not Avialble"</t>
   </si>
 </sst>
 </file>
@@ -4184,7 +4199,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mmm/yyyy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4234,6 +4249,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4635,9 +4657,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4666,6 +4685,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5003,8 +5025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H590"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B165" sqref="B165"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5037,10 +5059,10 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="78">
+      <c r="B2" s="77">
         <v>20090</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="76" t="s">
         <v>241</v>
       </c>
       <c r="D2" s="10" t="s">
@@ -5054,7 +5076,7 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="174" x14ac:dyDescent="0.35">
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="77" t="s">
         <v>1151</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -5071,7 +5093,7 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="77" t="s">
         <v>1152</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -5088,7 +5110,7 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="79">
+      <c r="B5" s="78">
         <v>34338</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -5105,7 +5127,7 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="77" t="s">
         <v>1153</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -5122,7 +5144,7 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="77" t="s">
         <v>1154</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -5139,7 +5161,7 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="77" t="s">
         <v>1155</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -5156,7 +5178,7 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="77" t="s">
         <v>1156</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -5173,7 +5195,7 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="78">
+      <c r="B10" s="77">
         <v>24115</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -5190,7 +5212,7 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="B11" s="78">
+      <c r="B11" s="77">
         <v>9505</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -5207,7 +5229,7 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="B12" s="78">
+      <c r="B12" s="77">
         <v>8410</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -5224,7 +5246,7 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B13" s="78">
+      <c r="B13" s="77">
         <v>45300</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -5241,7 +5263,7 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="78" t="s">
+      <c r="B14" s="77" t="s">
         <v>1157</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -5258,7 +5280,7 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B15" s="78">
+      <c r="B15" s="77">
         <v>24118</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -5275,7 +5297,7 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="77" t="s">
         <v>1158</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -5292,7 +5314,7 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B17" s="78">
+      <c r="B17" s="77">
         <v>3300</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -5309,7 +5331,7 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="78">
+      <c r="B18" s="77">
         <v>13893</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -5326,7 +5348,7 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="2:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="77" t="s">
         <v>1159</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -5343,7 +5365,7 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B20" s="78" t="s">
+      <c r="B20" s="77" t="s">
         <v>1160</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -5360,7 +5382,7 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="2:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="B21" s="78">
+      <c r="B21" s="77">
         <v>17913</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -5377,7 +5399,7 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="2:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="B22" s="78">
+      <c r="B22" s="77">
         <v>13896</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -5394,7 +5416,7 @@
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B23" s="78">
+      <c r="B23" s="77">
         <v>44578</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -5411,7 +5433,7 @@
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="2:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="B24" s="78">
+      <c r="B24" s="77">
         <v>37639</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -5428,7 +5450,7 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B25" s="78">
+      <c r="B25" s="77">
         <v>17185</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -5445,7 +5467,7 @@
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="2:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B26" s="78">
+      <c r="B26" s="77">
         <v>9516</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -5462,7 +5484,7 @@
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="2:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B27" s="78">
+      <c r="B27" s="77">
         <v>32162</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -5479,7 +5501,7 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B28" s="78">
+      <c r="B28" s="77">
         <v>42390</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -5496,7 +5518,7 @@
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="2:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B29" s="78">
+      <c r="B29" s="77">
         <v>16458</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -5513,7 +5535,7 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="2:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="B30" s="78">
+      <c r="B30" s="77">
         <v>12441</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -5530,7 +5552,7 @@
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="2:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B31" s="78" t="s">
+      <c r="B31" s="77" t="s">
         <v>1161</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -5547,7 +5569,7 @@
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="2:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B32" s="78">
+      <c r="B32" s="77">
         <v>27417</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -5564,7 +5586,7 @@
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B33" s="78">
+      <c r="B33" s="77">
         <v>40567</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -5581,7 +5603,7 @@
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="2:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="B34" s="78">
+      <c r="B34" s="77">
         <v>24131</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -5598,7 +5620,7 @@
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B35" s="78" t="s">
+      <c r="B35" s="77" t="s">
         <v>1162</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -5615,7 +5637,7 @@
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B36" s="78" t="s">
+      <c r="B36" s="77" t="s">
         <v>1163</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -5632,7 +5654,7 @@
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B37" s="78">
+      <c r="B37" s="77">
         <v>18289</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -5649,7 +5671,7 @@
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="2:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="B38" s="78">
+      <c r="B38" s="77">
         <v>31439</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -5666,7 +5688,7 @@
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B39" s="78">
+      <c r="B39" s="77">
         <v>10986</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -5683,7 +5705,7 @@
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="2:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="B40" s="78" t="s">
+      <c r="B40" s="77" t="s">
         <v>1164</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -5700,7 +5722,7 @@
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="2:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="B41" s="78" t="s">
+      <c r="B41" s="77" t="s">
         <v>1165</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -5717,7 +5739,7 @@
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="2:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="B42" s="78">
+      <c r="B42" s="77">
         <v>17562</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -5734,7 +5756,7 @@
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="2:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="B43" s="78" t="s">
+      <c r="B43" s="77" t="s">
         <v>1166</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -5751,7 +5773,7 @@
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B44" s="78">
+      <c r="B44" s="77">
         <v>32173</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -5768,7 +5790,7 @@
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B45" s="78">
+      <c r="B45" s="77">
         <v>24138</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -5785,7 +5807,7 @@
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B46" s="78">
+      <c r="B46" s="77">
         <v>37653</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -5802,7 +5824,7 @@
       <c r="H46" s="1"/>
     </row>
     <row r="47" spans="2:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B47" s="78">
+      <c r="B47" s="77">
         <v>763</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -5819,7 +5841,7 @@
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="2:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B48" s="78" t="s">
+      <c r="B48" s="77" t="s">
         <v>1167</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -5836,7 +5858,7 @@
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="2:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="B49" s="78">
+      <c r="B49" s="77">
         <v>5512</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -5853,7 +5875,7 @@
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="2:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="B50" s="79">
+      <c r="B50" s="78">
         <v>28523</v>
       </c>
       <c r="C50" s="40" t="s">
@@ -5870,7 +5892,7 @@
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B51" s="79">
+      <c r="B51" s="78">
         <v>36559</v>
       </c>
       <c r="C51" s="5" t="s">
@@ -5887,7 +5909,7 @@
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="2:8" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="B52" s="78">
+      <c r="B52" s="77">
         <v>8071</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -5904,7 +5926,7 @@
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B53" s="78">
+      <c r="B53" s="77">
         <v>13915</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -5921,7 +5943,7 @@
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="2:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B54" s="78">
+      <c r="B54" s="77">
         <v>9898</v>
       </c>
       <c r="C54" s="4" t="s">
@@ -5938,7 +5960,7 @@
       <c r="H54" s="1"/>
     </row>
     <row r="55" spans="2:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B55" s="78" t="s">
+      <c r="B55" s="77" t="s">
         <v>1168</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -5955,7 +5977,7 @@
       <c r="H55" s="1"/>
     </row>
     <row r="56" spans="2:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B56" s="78">
+      <c r="B56" s="77">
         <v>14282</v>
       </c>
       <c r="C56" s="4" t="s">
@@ -5972,7 +5994,7 @@
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="2:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B57" s="78">
+      <c r="B57" s="77">
         <v>44598</v>
       </c>
       <c r="C57" s="4" t="s">
@@ -5989,7 +6011,7 @@
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="2:8" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B58" s="78">
+      <c r="B58" s="77">
         <v>2960</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -6006,7 +6028,7 @@
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="2:8" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B59" s="78">
+      <c r="B59" s="77">
         <v>1499</v>
       </c>
       <c r="C59" s="4" t="s">
@@ -6023,7 +6045,7 @@
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="2:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="B60" s="78">
+      <c r="B60" s="77">
         <v>15015</v>
       </c>
       <c r="C60" s="4" t="s">
@@ -6040,7 +6062,7 @@
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="2:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B61" s="78">
+      <c r="B61" s="77">
         <v>34738</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -6057,7 +6079,7 @@
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B62" s="78">
+      <c r="B62" s="77">
         <v>39487</v>
       </c>
       <c r="C62" s="4" t="s">
@@ -6074,7 +6096,7 @@
       <c r="H62" s="1"/>
     </row>
     <row r="63" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B63" s="78">
+      <c r="B63" s="77">
         <v>2597</v>
       </c>
       <c r="C63" s="4" t="s">
@@ -6091,7 +6113,7 @@
       <c r="H63" s="1"/>
     </row>
     <row r="64" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B64" s="78">
+      <c r="B64" s="77">
         <v>28895</v>
       </c>
       <c r="C64" s="4" t="s">
@@ -6108,7 +6130,7 @@
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="2:8" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B65" s="78" t="s">
+      <c r="B65" s="77" t="s">
         <v>1169</v>
       </c>
       <c r="C65" s="4" t="s">
@@ -6125,7 +6147,7 @@
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="2:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B66" s="78">
+      <c r="B66" s="77">
         <v>5885</v>
       </c>
       <c r="C66" s="4" t="s">
@@ -6142,7 +6164,7 @@
       <c r="H66" s="1"/>
     </row>
     <row r="67" spans="2:8" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="B67" s="78">
+      <c r="B67" s="77">
         <v>24879</v>
       </c>
       <c r="C67" s="4" t="s">
@@ -6159,7 +6181,7 @@
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="2:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="B68" s="78" t="s">
+      <c r="B68" s="77" t="s">
         <v>1170</v>
       </c>
       <c r="C68" s="4" t="s">
@@ -6176,7 +6198,7 @@
       <c r="H68" s="1"/>
     </row>
     <row r="69" spans="2:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B69" s="78">
+      <c r="B69" s="77">
         <v>24880</v>
       </c>
       <c r="C69" s="4" t="s">
@@ -6193,7 +6215,7 @@
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B70" s="78" t="s">
+      <c r="B70" s="77" t="s">
         <v>1171</v>
       </c>
       <c r="C70" s="4" t="s">
@@ -6210,7 +6232,7 @@
       <c r="H70" s="1"/>
     </row>
     <row r="71" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B71" s="78">
+      <c r="B71" s="77">
         <v>3333</v>
       </c>
       <c r="C71" s="4" t="s">
@@ -6227,7 +6249,7 @@
       <c r="H71" s="1"/>
     </row>
     <row r="72" spans="2:8" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B72" s="78">
+      <c r="B72" s="77">
         <v>13925</v>
       </c>
       <c r="C72" s="4" t="s">
@@ -6244,7 +6266,7 @@
       <c r="H72" s="1"/>
     </row>
     <row r="73" spans="2:8" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="B73" s="78" t="s">
+      <c r="B73" s="77" t="s">
         <v>1172</v>
       </c>
       <c r="C73" s="4" t="s">
@@ -6261,7 +6283,7 @@
       <c r="H73" s="1"/>
     </row>
     <row r="74" spans="2:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="B74" s="78">
+      <c r="B74" s="77">
         <v>17578</v>
       </c>
       <c r="C74" s="4" t="s">
@@ -6278,7 +6300,7 @@
       <c r="H74" s="1"/>
     </row>
     <row r="75" spans="2:8" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="B75" s="78">
+      <c r="B75" s="77">
         <v>16118</v>
       </c>
       <c r="C75" s="4" t="s">
@@ -6295,22 +6317,24 @@
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="2:8" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B76" s="78">
+      <c r="B76" s="77">
         <v>20501</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="D76" s="15" t="s">
+      <c r="D76" s="75" t="s">
         <v>219</v>
       </c>
-      <c r="E76" s="29"/>
+      <c r="E76" s="85" t="s">
+        <v>1312</v>
+      </c>
       <c r="F76" s="18"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="2:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="B77" s="78" t="s">
+      <c r="B77" s="77" t="s">
         <v>1173</v>
       </c>
       <c r="C77" s="4" t="s">
@@ -6327,7 +6351,7 @@
       <c r="H77" s="1"/>
     </row>
     <row r="78" spans="2:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B78" s="78" t="s">
+      <c r="B78" s="77" t="s">
         <v>1174</v>
       </c>
       <c r="C78" s="4" t="s">
@@ -6344,7 +6368,7 @@
       <c r="H78" s="1"/>
     </row>
     <row r="79" spans="2:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="B79" s="78" t="s">
+      <c r="B79" s="77" t="s">
         <v>1175</v>
       </c>
       <c r="C79" s="4" t="s">
@@ -6361,7 +6385,7 @@
       <c r="H79" s="1"/>
     </row>
     <row r="80" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B80" s="78">
+      <c r="B80" s="77">
         <v>28540</v>
       </c>
       <c r="C80" s="4" t="s">
@@ -6378,7 +6402,7 @@
       <c r="H80" s="1"/>
     </row>
     <row r="81" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B81" s="78">
+      <c r="B81" s="77">
         <v>45342</v>
       </c>
       <c r="C81" s="4" t="s">
@@ -6395,7 +6419,7 @@
       <c r="H81" s="1"/>
     </row>
     <row r="82" spans="2:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B82" s="78">
+      <c r="B82" s="77">
         <v>18314</v>
       </c>
       <c r="C82" s="4" t="s">
@@ -6412,7 +6436,7 @@
       <c r="H82" s="1"/>
     </row>
     <row r="83" spans="2:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="B83" s="78" t="s">
+      <c r="B83" s="77" t="s">
         <v>1176</v>
       </c>
       <c r="C83" s="4" t="s">
@@ -6429,7 +6453,7 @@
       <c r="H83" s="1"/>
     </row>
     <row r="84" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B84" s="78" t="s">
+      <c r="B84" s="77" t="s">
         <v>1177</v>
       </c>
       <c r="C84" s="4" t="s">
@@ -6446,7 +6470,7 @@
       <c r="H84" s="1"/>
     </row>
     <row r="85" spans="2:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="B85" s="78">
+      <c r="B85" s="77">
         <v>21238</v>
       </c>
       <c r="C85" s="4" t="s">
@@ -6463,7 +6487,7 @@
       <c r="H85" s="1"/>
     </row>
     <row r="86" spans="2:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B86" s="78">
+      <c r="B86" s="77">
         <v>5532</v>
       </c>
       <c r="C86" s="4" t="s">
@@ -6480,7 +6504,7 @@
       <c r="H86" s="1"/>
     </row>
     <row r="87" spans="2:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="B87" s="78">
+      <c r="B87" s="77">
         <v>25257</v>
       </c>
       <c r="C87" s="4" t="s">
@@ -6497,7 +6521,7 @@
       <c r="H87" s="1"/>
     </row>
     <row r="88" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B88" s="78">
+      <c r="B88" s="77">
         <v>31467</v>
       </c>
       <c r="C88" s="4" t="s">
@@ -6514,7 +6538,7 @@
       <c r="H88" s="1"/>
     </row>
     <row r="89" spans="2:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="B89" s="78">
+      <c r="B89" s="77">
         <v>8821</v>
       </c>
       <c r="C89" s="4" t="s">
@@ -6531,7 +6555,7 @@
       <c r="H89" s="1"/>
     </row>
     <row r="90" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B90" s="78" t="s">
+      <c r="B90" s="77" t="s">
         <v>1178</v>
       </c>
       <c r="C90" s="4" t="s">
@@ -6548,7 +6572,7 @@
       <c r="H90" s="1"/>
     </row>
     <row r="91" spans="2:8" ht="174" x14ac:dyDescent="0.35">
-      <c r="B91" s="78">
+      <c r="B91" s="77">
         <v>25624</v>
       </c>
       <c r="C91" s="4" t="s">
@@ -6565,7 +6589,7 @@
       <c r="H91" s="1"/>
     </row>
     <row r="92" spans="2:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="B92" s="78" t="s">
+      <c r="B92" s="77" t="s">
         <v>1179</v>
       </c>
       <c r="C92" s="4" t="s">
@@ -6582,7 +6606,7 @@
       <c r="H92" s="1"/>
     </row>
     <row r="93" spans="2:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B93" s="78">
+      <c r="B93" s="77">
         <v>11381</v>
       </c>
       <c r="C93" s="4" t="s">
@@ -6599,7 +6623,7 @@
       <c r="H93" s="1"/>
     </row>
     <row r="94" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B94" s="78">
+      <c r="B94" s="77">
         <v>10286</v>
       </c>
       <c r="C94" s="4" t="s">
@@ -6616,7 +6640,7 @@
       <c r="H94" s="1"/>
     </row>
     <row r="95" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B95" s="78">
+      <c r="B95" s="77">
         <v>1521</v>
       </c>
       <c r="C95" s="4" t="s">
@@ -6633,7 +6657,7 @@
       <c r="H95" s="1"/>
     </row>
     <row r="96" spans="2:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B96" s="78">
+      <c r="B96" s="77">
         <v>3348</v>
       </c>
       <c r="C96" s="4" t="s">
@@ -6650,7 +6674,7 @@
       <c r="H96" s="1"/>
     </row>
     <row r="97" spans="2:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B97" s="78">
+      <c r="B97" s="77">
         <v>17959</v>
       </c>
       <c r="C97" s="4" t="s">
@@ -6667,7 +6691,7 @@
       <c r="H97" s="1"/>
     </row>
     <row r="98" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B98" s="78">
+      <c r="B98" s="77">
         <v>11385</v>
       </c>
       <c r="C98" s="4" t="s">
@@ -6684,7 +6708,7 @@
       <c r="H98" s="1"/>
     </row>
     <row r="99" spans="2:8" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B99" s="78" t="s">
+      <c r="B99" s="77" t="s">
         <v>1180</v>
       </c>
       <c r="C99" s="8" t="s">
@@ -6701,7 +6725,7 @@
       <c r="H99" s="1"/>
     </row>
     <row r="100" spans="2:8" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B100" s="78">
+      <c r="B100" s="77">
         <v>30013</v>
       </c>
       <c r="C100" s="8" t="s">
@@ -6718,7 +6742,7 @@
       <c r="H100" s="1"/>
     </row>
     <row r="101" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B101" s="78">
+      <c r="B101" s="77">
         <v>26362</v>
       </c>
       <c r="C101" s="4" t="s">
@@ -6735,7 +6759,7 @@
       <c r="H101" s="1"/>
     </row>
     <row r="102" spans="2:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B102" s="78">
+      <c r="B102" s="77">
         <v>9195</v>
       </c>
       <c r="C102" s="4" t="s">
@@ -6752,7 +6776,7 @@
       <c r="H102" s="1"/>
     </row>
     <row r="103" spans="2:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="B103" s="78">
+      <c r="B103" s="77">
         <v>4813</v>
       </c>
       <c r="C103" s="4" t="s">
@@ -6769,7 +6793,7 @@
       <c r="H103" s="1"/>
     </row>
     <row r="104" spans="2:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="B104" s="78" t="s">
+      <c r="B104" s="77" t="s">
         <v>1181</v>
       </c>
       <c r="C104" s="4" t="s">
@@ -6786,7 +6810,7 @@
       <c r="H104" s="1"/>
     </row>
     <row r="105" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B105" s="78">
+      <c r="B105" s="77">
         <v>19060</v>
       </c>
       <c r="C105" s="4" t="s">
@@ -6803,7 +6827,7 @@
       <c r="H105" s="1"/>
     </row>
     <row r="106" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B106" s="78">
+      <c r="B106" s="77">
         <v>22347</v>
       </c>
       <c r="C106" s="8" t="s">
@@ -6820,7 +6844,7 @@
       <c r="H106" s="1"/>
     </row>
     <row r="107" spans="2:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B107" s="78">
+      <c r="B107" s="77">
         <v>27461</v>
       </c>
       <c r="C107" s="4" t="s">
@@ -6837,7 +6861,7 @@
       <c r="H107" s="1"/>
     </row>
     <row r="108" spans="2:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="B108" s="78">
+      <c r="B108" s="77">
         <v>34402</v>
       </c>
       <c r="C108" s="4" t="s">
@@ -6854,7 +6878,7 @@
       <c r="H108" s="1"/>
     </row>
     <row r="109" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B109" s="78" t="s">
+      <c r="B109" s="77" t="s">
         <v>1182</v>
       </c>
       <c r="C109" s="4" t="s">
@@ -6871,7 +6895,7 @@
       <c r="H109" s="1"/>
     </row>
     <row r="110" spans="2:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B110" s="78" t="s">
+      <c r="B110" s="77" t="s">
         <v>1183</v>
       </c>
       <c r="C110" s="4" t="s">
@@ -6888,7 +6912,7 @@
       <c r="H110" s="1"/>
     </row>
     <row r="111" spans="2:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B111" s="78" t="s">
+      <c r="B111" s="77" t="s">
         <v>1184</v>
       </c>
       <c r="C111" s="4" t="s">
@@ -6905,7 +6929,7 @@
       <c r="H111" s="1"/>
     </row>
     <row r="112" spans="2:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="B112" s="78">
+      <c r="B112" s="77">
         <v>11029</v>
       </c>
       <c r="C112" s="8" t="s">
@@ -6922,7 +6946,7 @@
       <c r="H112" s="1"/>
     </row>
     <row r="113" spans="2:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="B113" s="78">
+      <c r="B113" s="77">
         <v>38059</v>
       </c>
       <c r="C113" s="4" t="s">
@@ -6939,7 +6963,7 @@
       <c r="H113" s="1"/>
     </row>
     <row r="114" spans="2:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="B114" s="78">
+      <c r="B114" s="77">
         <v>44269</v>
       </c>
       <c r="C114" s="4" t="s">
@@ -6956,7 +6980,7 @@
       <c r="H114" s="1"/>
     </row>
     <row r="115" spans="2:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B115" s="78">
+      <c r="B115" s="77">
         <v>44270</v>
       </c>
       <c r="C115" s="4" t="s">
@@ -6973,7 +6997,7 @@
       <c r="H115" s="1"/>
     </row>
     <row r="116" spans="2:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B116" s="78" t="s">
+      <c r="B116" s="77" t="s">
         <v>1185</v>
       </c>
       <c r="C116" s="4" t="s">
@@ -6990,7 +7014,7 @@
       <c r="H116" s="1"/>
     </row>
     <row r="117" spans="2:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B117" s="78">
+      <c r="B117" s="77">
         <v>441</v>
       </c>
       <c r="C117" s="4" t="s">
@@ -7007,7 +7031,7 @@
       <c r="H117" s="1"/>
     </row>
     <row r="118" spans="2:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="B118" s="78">
+      <c r="B118" s="77">
         <v>17242</v>
       </c>
       <c r="C118" s="4" t="s">
@@ -7024,7 +7048,7 @@
       <c r="H118" s="1"/>
     </row>
     <row r="119" spans="2:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="B119" s="78">
+      <c r="B119" s="77">
         <v>3364</v>
       </c>
       <c r="C119" s="4" t="s">
@@ -7041,7 +7065,7 @@
       <c r="H119" s="1"/>
     </row>
     <row r="120" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B120" s="78">
+      <c r="B120" s="77">
         <v>22722</v>
       </c>
       <c r="C120" s="4" t="s">
@@ -7058,7 +7082,7 @@
       <c r="H120" s="1"/>
     </row>
     <row r="121" spans="2:8" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B121" s="78" t="s">
+      <c r="B121" s="77" t="s">
         <v>1186</v>
       </c>
       <c r="C121" s="4" t="s">
@@ -7075,7 +7099,7 @@
       <c r="H121" s="1"/>
     </row>
     <row r="122" spans="2:8" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B122" s="78">
+      <c r="B122" s="77">
         <v>30029</v>
       </c>
       <c r="C122" s="4" t="s">
@@ -7092,7 +7116,7 @@
       <c r="H122" s="1"/>
     </row>
     <row r="123" spans="2:8" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="B123" s="78">
+      <c r="B123" s="77">
         <v>41718</v>
       </c>
       <c r="C123" s="4" t="s">
@@ -7109,7 +7133,7 @@
       <c r="H123" s="1"/>
     </row>
     <row r="124" spans="2:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B124" s="78">
+      <c r="B124" s="77">
         <v>5925</v>
       </c>
       <c r="C124" s="4" t="s">
@@ -7126,7 +7150,7 @@
       <c r="H124" s="1"/>
     </row>
     <row r="125" spans="2:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="B125" s="78" t="s">
+      <c r="B125" s="77" t="s">
         <v>1187</v>
       </c>
       <c r="C125" s="4" t="s">
@@ -7143,7 +7167,7 @@
       <c r="H125" s="1"/>
     </row>
     <row r="126" spans="2:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B126" s="78">
+      <c r="B126" s="77">
         <v>11405</v>
       </c>
       <c r="C126" s="8" t="s">
@@ -7160,7 +7184,7 @@
       <c r="H126" s="1"/>
     </row>
     <row r="127" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B127" s="78">
+      <c r="B127" s="77">
         <v>3735</v>
       </c>
       <c r="C127" s="8" t="s">
@@ -7177,7 +7201,7 @@
       <c r="H127" s="1"/>
     </row>
     <row r="128" spans="2:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="B128" s="78" t="s">
+      <c r="B128" s="77" t="s">
         <v>1188</v>
       </c>
       <c r="C128" s="4" t="s">
@@ -7194,7 +7218,7 @@
       <c r="H128" s="1"/>
     </row>
     <row r="129" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B129" s="78">
+      <c r="B129" s="77">
         <v>7390</v>
       </c>
       <c r="C129" s="4" t="s">
@@ -7211,7 +7235,7 @@
       <c r="H129" s="1"/>
     </row>
     <row r="130" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B130" s="78">
+      <c r="B130" s="77">
         <v>2642</v>
       </c>
       <c r="C130" s="4" t="s">
@@ -7228,7 +7252,7 @@
       <c r="H130" s="1"/>
     </row>
     <row r="131" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B131" s="78">
+      <c r="B131" s="77">
         <v>5565</v>
       </c>
       <c r="C131" s="4" t="s">
@@ -7245,7 +7269,7 @@
       <c r="H131" s="1"/>
     </row>
     <row r="132" spans="2:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B132" s="78">
+      <c r="B132" s="77">
         <v>24559</v>
       </c>
       <c r="C132" s="4" t="s">
@@ -7262,7 +7286,7 @@
       <c r="H132" s="1"/>
     </row>
     <row r="133" spans="2:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B133" s="78">
+      <c r="B133" s="77">
         <v>15793</v>
       </c>
       <c r="C133" s="4" t="s">
@@ -7279,7 +7303,7 @@
       <c r="H133" s="1"/>
     </row>
     <row r="134" spans="2:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B134" s="80" t="s">
+      <c r="B134" s="79" t="s">
         <v>1189</v>
       </c>
       <c r="C134" s="6" t="s">
@@ -7296,7 +7320,7 @@
       <c r="H134" s="1"/>
     </row>
     <row r="135" spans="2:8" ht="174" x14ac:dyDescent="0.35">
-      <c r="B135" s="78">
+      <c r="B135" s="77">
         <v>38440</v>
       </c>
       <c r="C135" s="6" t="s">
@@ -7313,7 +7337,7 @@
       <c r="H135" s="1"/>
     </row>
     <row r="136" spans="2:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="B136" s="78">
+      <c r="B136" s="77">
         <v>3012</v>
       </c>
       <c r="C136" s="6" t="s">
@@ -7330,7 +7354,7 @@
       <c r="H136" s="1"/>
     </row>
     <row r="137" spans="2:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B137" s="78">
+      <c r="B137" s="77">
         <v>11047</v>
       </c>
       <c r="C137" s="6" t="s">
@@ -7347,7 +7371,7 @@
       <c r="H137" s="1"/>
     </row>
     <row r="138" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B138" s="78">
+      <c r="B138" s="77">
         <v>12509</v>
       </c>
       <c r="C138" s="6" t="s">
@@ -7364,7 +7388,7 @@
       <c r="H138" s="1"/>
     </row>
     <row r="139" spans="2:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="B139" s="78">
+      <c r="B139" s="77">
         <v>26389</v>
       </c>
       <c r="C139" s="6" t="s">
@@ -7381,7 +7405,7 @@
       <c r="H139" s="1"/>
     </row>
     <row r="140" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B140" s="80" t="s">
+      <c r="B140" s="79" t="s">
         <v>1190</v>
       </c>
       <c r="C140" s="6" t="s">
@@ -7398,7 +7422,7 @@
       <c r="H140" s="1"/>
     </row>
     <row r="141" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B141" s="81" t="s">
+      <c r="B141" s="80" t="s">
         <v>1191</v>
       </c>
       <c r="C141" s="7" t="s">
@@ -7415,7 +7439,7 @@
       <c r="H141" s="1"/>
     </row>
     <row r="142" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B142" s="80" t="s">
+      <c r="B142" s="79" t="s">
         <v>1192</v>
       </c>
       <c r="C142" s="6" t="s">
@@ -7432,7 +7456,7 @@
       <c r="H142" s="1"/>
     </row>
     <row r="143" spans="2:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="B143" s="78">
+      <c r="B143" s="77">
         <v>12146</v>
       </c>
       <c r="C143" s="6" t="s">
@@ -7449,7 +7473,7 @@
       <c r="H143" s="1"/>
     </row>
     <row r="144" spans="2:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="B144" s="78">
+      <c r="B144" s="77">
         <v>823</v>
       </c>
       <c r="C144" s="6" t="s">
@@ -7466,7 +7490,7 @@
       <c r="H144" s="1"/>
     </row>
     <row r="145" spans="2:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B145" s="80" t="s">
+      <c r="B145" s="79" t="s">
         <v>1193</v>
       </c>
       <c r="C145" s="6" t="s">
@@ -7483,7 +7507,7 @@
       <c r="H145" s="1"/>
     </row>
     <row r="146" spans="2:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B146" s="78">
+      <c r="B146" s="77">
         <v>42829</v>
       </c>
       <c r="C146" s="6" t="s">
@@ -7500,7 +7524,7 @@
       <c r="H146" s="1"/>
     </row>
     <row r="147" spans="2:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B147" s="78">
+      <c r="B147" s="77">
         <v>20915</v>
       </c>
       <c r="C147" s="9" t="s">
@@ -7517,7 +7541,7 @@
       <c r="H147" s="1"/>
     </row>
     <row r="148" spans="2:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="B148" s="78">
+      <c r="B148" s="77">
         <v>3018</v>
       </c>
       <c r="C148" s="6" t="s">
@@ -7534,7 +7558,7 @@
       <c r="H148" s="1"/>
     </row>
     <row r="149" spans="2:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="B149" s="78">
+      <c r="B149" s="77">
         <v>11054</v>
       </c>
       <c r="C149" s="6" t="s">
@@ -7551,7 +7575,7 @@
       <c r="H149" s="1"/>
     </row>
     <row r="150" spans="2:8" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B150" s="78">
+      <c r="B150" s="77">
         <v>3384</v>
       </c>
       <c r="C150" s="9" t="s">
@@ -7568,7 +7592,7 @@
       <c r="H150" s="1"/>
     </row>
     <row r="151" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B151" s="78">
+      <c r="B151" s="77">
         <v>7403</v>
       </c>
       <c r="C151" s="6" t="s">
@@ -7585,7 +7609,7 @@
       <c r="H151" s="1"/>
     </row>
     <row r="152" spans="2:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="B152" s="78">
+      <c r="B152" s="77">
         <v>38084</v>
       </c>
       <c r="C152" s="6" t="s">
@@ -7602,7 +7626,7 @@
       <c r="H152" s="1"/>
     </row>
     <row r="153" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B153" s="80" t="s">
+      <c r="B153" s="79" t="s">
         <v>1194</v>
       </c>
       <c r="C153" s="6" t="s">
@@ -7619,7 +7643,7 @@
       <c r="H153" s="1"/>
     </row>
     <row r="154" spans="2:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="B154" s="80" t="s">
+      <c r="B154" s="79" t="s">
         <v>1195</v>
       </c>
       <c r="C154" s="6" t="s">
@@ -7636,7 +7660,7 @@
       <c r="H154" s="1"/>
     </row>
     <row r="155" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B155" s="80" t="s">
+      <c r="B155" s="79" t="s">
         <v>1196</v>
       </c>
       <c r="C155" s="6" t="s">
@@ -7653,7 +7677,7 @@
       <c r="H155" s="1"/>
     </row>
     <row r="156" spans="2:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B156" s="78">
+      <c r="B156" s="77">
         <v>11789</v>
       </c>
       <c r="C156" s="6" t="s">
@@ -7670,7 +7694,7 @@
       <c r="H156" s="1"/>
     </row>
     <row r="157" spans="2:8" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B157" s="78">
+      <c r="B157" s="77">
         <v>36260</v>
       </c>
       <c r="C157" s="6" t="s">
@@ -7687,7 +7711,7 @@
       <c r="H157" s="1"/>
     </row>
     <row r="158" spans="2:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="B158" s="78" t="s">
+      <c r="B158" s="77" t="s">
         <v>1197</v>
       </c>
       <c r="C158" s="6" t="s">
@@ -7704,7 +7728,7 @@
       <c r="H158" s="1"/>
     </row>
     <row r="159" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B159" s="78" t="s">
+      <c r="B159" s="77" t="s">
         <v>1198</v>
       </c>
       <c r="C159" s="6" t="s">
@@ -7721,7 +7745,7 @@
       <c r="H159" s="1"/>
     </row>
     <row r="160" spans="2:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="B160" s="78" t="s">
+      <c r="B160" s="77" t="s">
         <v>1199</v>
       </c>
       <c r="C160" s="6" t="s">
@@ -7738,7 +7762,7 @@
       <c r="H160" s="1"/>
     </row>
     <row r="161" spans="2:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B161" s="78" t="s">
+      <c r="B161" s="77" t="s">
         <v>1200</v>
       </c>
       <c r="C161" s="6" t="s">
@@ -7755,7 +7779,7 @@
       <c r="H161" s="1"/>
     </row>
     <row r="162" spans="2:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B162" s="78">
+      <c r="B162" s="77">
         <v>7043</v>
       </c>
       <c r="C162" s="6" t="s">
@@ -7772,7 +7796,7 @@
       <c r="H162" s="1"/>
     </row>
     <row r="163" spans="2:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B163" s="78">
+      <c r="B163" s="77">
         <v>104</v>
       </c>
       <c r="C163" s="6" t="s">
@@ -7789,7 +7813,7 @@
       <c r="H163" s="1"/>
     </row>
     <row r="164" spans="2:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B164" s="78">
+      <c r="B164" s="77">
         <v>104</v>
       </c>
       <c r="C164" s="6" t="s">
@@ -7806,7 +7830,7 @@
       <c r="H164" s="1"/>
     </row>
     <row r="165" spans="2:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B165" s="78">
+      <c r="B165" s="77">
         <v>106</v>
       </c>
       <c r="C165" s="6" t="s">
@@ -7823,7 +7847,7 @@
       <c r="H165" s="1"/>
     </row>
     <row r="166" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B166" s="78">
+      <c r="B166" s="77">
         <v>23115</v>
       </c>
       <c r="C166" s="6" t="s">
@@ -7840,7 +7864,7 @@
       <c r="H166" s="1"/>
     </row>
     <row r="167" spans="2:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B167" s="78" t="s">
+      <c r="B167" s="77" t="s">
         <v>1201</v>
       </c>
       <c r="C167" s="6" t="s">
@@ -7857,7 +7881,7 @@
       <c r="H167" s="1"/>
     </row>
     <row r="168" spans="2:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="B168" s="78" t="s">
+      <c r="B168" s="77" t="s">
         <v>1202</v>
       </c>
       <c r="C168" s="6" t="s">
@@ -7874,7 +7898,7 @@
       <c r="H168" s="1"/>
     </row>
     <row r="169" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B169" s="78" t="s">
+      <c r="B169" s="77" t="s">
         <v>1203</v>
       </c>
       <c r="C169" s="6" t="s">
@@ -7891,7 +7915,7 @@
       <c r="H169" s="1"/>
     </row>
     <row r="170" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B170" s="78" t="s">
+      <c r="B170" s="77" t="s">
         <v>1204</v>
       </c>
       <c r="C170" s="6" t="s">
@@ -7908,7 +7932,7 @@
       <c r="H170" s="1"/>
     </row>
     <row r="171" spans="2:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B171" s="78">
+      <c r="B171" s="77">
         <v>4491</v>
       </c>
       <c r="C171" s="6" t="s">
@@ -7925,7 +7949,7 @@
       <c r="H171" s="1"/>
     </row>
     <row r="172" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B172" s="78">
+      <c r="B172" s="77">
         <v>27501</v>
       </c>
       <c r="C172" s="6" t="s">
@@ -7942,7 +7966,7 @@
       <c r="H172" s="1"/>
     </row>
     <row r="173" spans="2:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B173" s="78">
+      <c r="B173" s="77">
         <v>16909</v>
       </c>
       <c r="C173" s="6" t="s">
@@ -7959,7 +7983,7 @@
       <c r="H173" s="1"/>
     </row>
     <row r="174" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B174" s="78">
+      <c r="B174" s="77">
         <v>30424</v>
       </c>
       <c r="C174" s="6" t="s">
@@ -7976,7 +8000,7 @@
       <c r="H174" s="1"/>
     </row>
     <row r="175" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B175" s="78" t="s">
+      <c r="B175" s="77" t="s">
         <v>1205</v>
       </c>
       <c r="C175" s="6" t="s">
@@ -7993,7 +8017,7 @@
       <c r="H175" s="1"/>
     </row>
     <row r="176" spans="2:8" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="B176" s="78" t="s">
+      <c r="B176" s="77" t="s">
         <v>1206</v>
       </c>
       <c r="C176" s="6" t="s">
@@ -8010,7 +8034,7 @@
       <c r="H176" s="1"/>
     </row>
     <row r="177" spans="2:8" ht="174" x14ac:dyDescent="0.35">
-      <c r="B177" s="78">
+      <c r="B177" s="77">
         <v>17641</v>
       </c>
       <c r="C177" s="6" t="s">
@@ -8027,7 +8051,7 @@
       <c r="H177" s="1"/>
     </row>
     <row r="178" spans="2:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="B178" s="78">
+      <c r="B178" s="77">
         <v>27503</v>
       </c>
       <c r="C178" s="9" t="s">
@@ -8044,7 +8068,7 @@
       <c r="H178" s="1"/>
     </row>
     <row r="179" spans="2:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B179" s="78">
+      <c r="B179" s="77">
         <v>3762</v>
       </c>
       <c r="C179" s="6" t="s">
@@ -8061,7 +8085,7 @@
       <c r="H179" s="1"/>
     </row>
     <row r="180" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B180" s="78">
+      <c r="B180" s="77">
         <v>22026</v>
       </c>
       <c r="C180" s="6" t="s">
@@ -8078,7 +8102,7 @@
       <c r="H180" s="1"/>
     </row>
     <row r="181" spans="2:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B181" s="78">
+      <c r="B181" s="77">
         <v>41385</v>
       </c>
       <c r="C181" s="9" t="s">
@@ -8095,7 +8119,7 @@
       <c r="H181" s="1"/>
     </row>
     <row r="182" spans="2:8" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="B182" s="78">
+      <c r="B182" s="77">
         <v>25680</v>
       </c>
       <c r="C182" s="6" t="s">
@@ -8112,7 +8136,7 @@
       <c r="H182" s="1"/>
     </row>
     <row r="183" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B183" s="78">
+      <c r="B183" s="77">
         <v>33717</v>
       </c>
       <c r="C183" s="4" t="s">
@@ -8129,7 +8153,7 @@
       <c r="H183" s="1"/>
     </row>
     <row r="184" spans="2:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="B184" s="78">
+      <c r="B184" s="77">
         <v>24951</v>
       </c>
       <c r="C184" s="6" t="s">
@@ -8146,7 +8170,7 @@
       <c r="H184" s="1"/>
     </row>
     <row r="185" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B185" s="78">
+      <c r="B185" s="77">
         <v>26413</v>
       </c>
       <c r="C185" s="6" t="s">
@@ -8163,7 +8187,7 @@
       <c r="H185" s="1"/>
     </row>
     <row r="186" spans="2:8" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B186" s="78">
+      <c r="B186" s="77">
         <v>27143</v>
       </c>
       <c r="C186" s="6" t="s">
@@ -8180,7 +8204,7 @@
       <c r="H186" s="1"/>
     </row>
     <row r="187" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B187" s="78" t="s">
+      <c r="B187" s="77" t="s">
         <v>1207</v>
       </c>
       <c r="C187" s="6" t="s">
@@ -8197,7 +8221,7 @@
       <c r="H187" s="1"/>
     </row>
     <row r="188" spans="2:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B188" s="78">
+      <c r="B188" s="77">
         <v>7422</v>
       </c>
       <c r="C188" s="6" t="s">
@@ -8214,7 +8238,7 @@
       <c r="H188" s="1"/>
     </row>
     <row r="189" spans="2:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B189" s="78" t="s">
+      <c r="B189" s="77" t="s">
         <v>1208</v>
       </c>
       <c r="C189" s="6" t="s">
@@ -8231,7 +8255,7 @@
       <c r="H189" s="1"/>
     </row>
     <row r="190" spans="2:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B190" s="78">
+      <c r="B190" s="77">
         <v>4501</v>
       </c>
       <c r="C190" s="6" t="s">
@@ -8248,7 +8272,7 @@
       <c r="H190" s="1"/>
     </row>
     <row r="191" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B191" s="78">
+      <c r="B191" s="77">
         <v>5963</v>
       </c>
       <c r="C191" s="6" t="s">
@@ -8265,7 +8289,7 @@
       <c r="H191" s="1"/>
     </row>
     <row r="192" spans="2:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B192" s="78" t="s">
+      <c r="B192" s="77" t="s">
         <v>1209</v>
       </c>
       <c r="C192" s="4" t="s">
@@ -8282,7 +8306,7 @@
       <c r="H192" s="1"/>
     </row>
     <row r="193" spans="1:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B193" s="78">
+      <c r="B193" s="77">
         <v>7059</v>
       </c>
       <c r="C193" s="6" t="s">
@@ -8302,13 +8326,13 @@
       <c r="A194" t="s">
         <v>533</v>
       </c>
-      <c r="B194" s="78" t="s">
+      <c r="B194" s="77" t="s">
         <v>1210</v>
       </c>
       <c r="C194" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="D194" s="76" t="s">
+      <c r="D194" s="75" t="s">
         <v>216</v>
       </c>
       <c r="E194" s="30" t="s">
@@ -8322,7 +8346,7 @@
       <c r="A195" t="s">
         <v>533</v>
       </c>
-      <c r="B195" s="78">
+      <c r="B195" s="77">
         <v>7061</v>
       </c>
       <c r="C195" s="6" t="s">
@@ -8342,7 +8366,7 @@
       <c r="A196" t="s">
         <v>533</v>
       </c>
-      <c r="B196" s="78">
+      <c r="B196" s="77">
         <v>4870</v>
       </c>
       <c r="C196" s="6" t="s">
@@ -8362,7 +8386,7 @@
       <c r="A197" t="s">
         <v>533</v>
       </c>
-      <c r="B197" s="78">
+      <c r="B197" s="77">
         <v>7793</v>
       </c>
       <c r="C197" s="6" t="s">
@@ -8382,7 +8406,7 @@
       <c r="A198" t="s">
         <v>533</v>
       </c>
-      <c r="B198" s="78">
+      <c r="B198" s="77">
         <v>29709</v>
       </c>
       <c r="C198" s="6" t="s">
@@ -8399,7 +8423,7 @@
       <c r="H198" s="1"/>
     </row>
     <row r="199" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B199" s="78">
+      <c r="B199" s="77">
         <v>39572</v>
       </c>
       <c r="C199" s="6" t="s">
@@ -8416,7 +8440,7 @@
       <c r="H199" s="1"/>
     </row>
     <row r="200" spans="1:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B200" s="78">
+      <c r="B200" s="77">
         <v>1951</v>
       </c>
       <c r="C200" s="9" t="s">
@@ -8433,7 +8457,7 @@
       <c r="H200" s="1"/>
     </row>
     <row r="201" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B201" s="78">
+      <c r="B201" s="77">
         <v>30076</v>
       </c>
       <c r="C201" s="6" t="s">
@@ -8450,7 +8474,7 @@
       <c r="H201" s="1"/>
     </row>
     <row r="202" spans="1:8" ht="174" x14ac:dyDescent="0.35">
-      <c r="B202" s="78">
+      <c r="B202" s="77">
         <v>4143</v>
       </c>
       <c r="C202" s="6" t="s">
@@ -8467,7 +8491,7 @@
       <c r="H202" s="1"/>
     </row>
     <row r="203" spans="1:8" ht="174" x14ac:dyDescent="0.35">
-      <c r="B203" s="78">
+      <c r="B203" s="77">
         <v>16928</v>
       </c>
       <c r="C203" s="6" t="s">
@@ -8484,7 +8508,7 @@
       <c r="H203" s="1"/>
     </row>
     <row r="204" spans="1:8" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B204" s="78" t="s">
+      <c r="B204" s="77" t="s">
         <v>1211</v>
       </c>
       <c r="C204" s="6" t="s">
@@ -8501,7 +8525,7 @@
       <c r="H204" s="1"/>
     </row>
     <row r="205" spans="1:8" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B205" s="78">
+      <c r="B205" s="77">
         <v>8894</v>
       </c>
       <c r="C205" s="6" t="s">
@@ -8518,7 +8542,7 @@
       <c r="H205" s="1"/>
     </row>
     <row r="206" spans="1:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="B206" s="78" t="s">
+      <c r="B206" s="77" t="s">
         <v>1212</v>
       </c>
       <c r="C206" s="6" t="s">
@@ -8535,7 +8559,7 @@
       <c r="H206" s="1"/>
     </row>
     <row r="207" spans="1:8" ht="203" x14ac:dyDescent="0.35">
-      <c r="B207" s="78">
+      <c r="B207" s="77">
         <v>5973</v>
       </c>
       <c r="C207" s="9" t="s">
@@ -8552,7 +8576,7 @@
       <c r="H207" s="1"/>
     </row>
     <row r="208" spans="1:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B208" s="78">
+      <c r="B208" s="77">
         <v>5608</v>
       </c>
       <c r="C208" s="6" t="s">
@@ -8569,7 +8593,7 @@
       <c r="H208" s="1"/>
     </row>
     <row r="209" spans="2:8" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B209" s="78">
+      <c r="B209" s="77">
         <v>29715</v>
       </c>
       <c r="C209" s="6" t="s">
@@ -8586,7 +8610,7 @@
       <c r="H209" s="1"/>
     </row>
     <row r="210" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B210" s="78">
+      <c r="B210" s="77">
         <v>44691</v>
       </c>
       <c r="C210" s="6" t="s">
@@ -8603,7 +8627,7 @@
       <c r="H210" s="1"/>
     </row>
     <row r="211" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B211" s="78">
+      <c r="B211" s="77">
         <v>1957</v>
       </c>
       <c r="C211" s="6" t="s">
@@ -8620,7 +8644,7 @@
       <c r="H211" s="1"/>
     </row>
     <row r="212" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B212" s="78">
+      <c r="B212" s="77">
         <v>6706</v>
       </c>
       <c r="C212" s="6" t="s">
@@ -8637,7 +8661,7 @@
       <c r="H212" s="1"/>
     </row>
     <row r="213" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B213" s="78">
+      <c r="B213" s="77">
         <v>37024</v>
       </c>
       <c r="C213" s="6" t="s">
@@ -8654,7 +8678,7 @@
       <c r="H213" s="1"/>
     </row>
     <row r="214" spans="2:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B214" s="78">
+      <c r="B214" s="77">
         <v>8535</v>
       </c>
       <c r="C214" s="6" t="s">
@@ -8671,7 +8695,7 @@
       <c r="H214" s="1"/>
     </row>
     <row r="215" spans="2:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B215" s="78">
+      <c r="B215" s="77">
         <v>2692</v>
       </c>
       <c r="C215" s="6" t="s">
@@ -8688,7 +8712,7 @@
       <c r="H215" s="1"/>
     </row>
     <row r="216" spans="2:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B216" s="79">
+      <c r="B216" s="78">
         <v>15112</v>
       </c>
       <c r="C216" s="7" t="s">
@@ -8705,7 +8729,7 @@
       <c r="H216" s="1"/>
     </row>
     <row r="217" spans="2:8" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B217" s="79">
+      <c r="B217" s="78">
         <v>1232</v>
       </c>
       <c r="C217" s="7" t="s">
@@ -8719,7 +8743,7 @@
       </c>
     </row>
     <row r="218" spans="2:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="B218" s="79">
+      <c r="B218" s="78">
         <v>18765</v>
       </c>
       <c r="C218" s="28" t="s">
@@ -8733,7 +8757,7 @@
       </c>
     </row>
     <row r="219" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B219" s="78" t="s">
+      <c r="B219" s="77" t="s">
         <v>1213</v>
       </c>
       <c r="C219" s="24" t="s">
@@ -8747,7 +8771,7 @@
       </c>
     </row>
     <row r="220" spans="2:8" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="B220" s="78">
+      <c r="B220" s="77">
         <v>28263</v>
       </c>
       <c r="C220" s="6" t="s">
@@ -8761,7 +8785,7 @@
       </c>
     </row>
     <row r="221" spans="2:8" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B221" s="78">
+      <c r="B221" s="77">
         <v>1601</v>
       </c>
       <c r="C221" s="6" t="s">
@@ -8775,7 +8799,7 @@
       </c>
     </row>
     <row r="222" spans="2:8" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B222" s="82" t="s">
+      <c r="B222" s="81" t="s">
         <v>1297</v>
       </c>
       <c r="C222" s="20" t="s">
@@ -8789,7 +8813,7 @@
       </c>
     </row>
     <row r="223" spans="2:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="B223" s="78">
+      <c r="B223" s="77">
         <v>11829</v>
       </c>
       <c r="C223" s="6" t="s">
@@ -8803,7 +8827,7 @@
       </c>
     </row>
     <row r="224" spans="2:8" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B224" s="78">
+      <c r="B224" s="77">
         <v>20960</v>
       </c>
       <c r="C224" s="6" t="s">
@@ -8817,7 +8841,7 @@
       </c>
     </row>
     <row r="225" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B225" s="78" t="s">
+      <c r="B225" s="77" t="s">
         <v>1214</v>
       </c>
       <c r="C225" s="6" t="s">
@@ -8831,7 +8855,7 @@
       </c>
     </row>
     <row r="226" spans="2:5" ht="116" x14ac:dyDescent="0.35">
-      <c r="B226" s="78">
+      <c r="B226" s="77">
         <v>10003</v>
       </c>
       <c r="C226" s="6" t="s">
@@ -8845,7 +8869,7 @@
       </c>
     </row>
     <row r="227" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B227" s="78" t="s">
+      <c r="B227" s="77" t="s">
         <v>1215</v>
       </c>
       <c r="C227" s="6" t="s">
@@ -8859,7 +8883,7 @@
       </c>
     </row>
     <row r="228" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B228" s="78">
+      <c r="B228" s="77">
         <v>11101</v>
       </c>
       <c r="C228" s="6" t="s">
@@ -8873,7 +8897,7 @@
       </c>
     </row>
     <row r="229" spans="2:5" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="B229" s="78">
+      <c r="B229" s="77">
         <v>36670</v>
       </c>
       <c r="C229" s="6" t="s">
@@ -8887,7 +8911,7 @@
       </c>
     </row>
     <row r="230" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B230" s="78" t="s">
+      <c r="B230" s="77" t="s">
         <v>1216</v>
       </c>
       <c r="C230" s="6" t="s">
@@ -8900,8 +8924,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="231" spans="2:5" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B231" s="78">
+    <row r="231" spans="2:5" ht="145" x14ac:dyDescent="0.35">
+      <c r="B231" s="77">
         <v>12565</v>
       </c>
       <c r="C231" s="6" t="s">
@@ -8915,7 +8939,7 @@
       </c>
     </row>
     <row r="232" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B232" s="78">
+      <c r="B232" s="77">
         <v>23524</v>
       </c>
       <c r="C232" s="6" t="s">
@@ -8929,7 +8953,7 @@
       </c>
     </row>
     <row r="233" spans="2:5" ht="116" x14ac:dyDescent="0.35">
-      <c r="B233" s="78" t="s">
+      <c r="B233" s="77" t="s">
         <v>1217</v>
       </c>
       <c r="C233" s="6" t="s">
@@ -8943,7 +8967,7 @@
       </c>
     </row>
     <row r="234" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B234" s="78">
+      <c r="B234" s="77">
         <v>26448</v>
       </c>
       <c r="C234" s="6" t="s">
@@ -8957,7 +8981,7 @@
       </c>
     </row>
     <row r="235" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B235" s="78" t="s">
+      <c r="B235" s="77" t="s">
         <v>1218</v>
       </c>
       <c r="C235" s="6" t="s">
@@ -8971,7 +8995,7 @@
       </c>
     </row>
     <row r="236" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B236" s="78">
+      <c r="B236" s="77">
         <v>39964</v>
       </c>
       <c r="C236" s="6" t="s">
@@ -8985,7 +9009,7 @@
       </c>
     </row>
     <row r="237" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B237" s="78" t="s">
+      <c r="B237" s="77" t="s">
         <v>1219</v>
       </c>
       <c r="C237" s="6" t="s">
@@ -8999,7 +9023,7 @@
       </c>
     </row>
     <row r="238" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B238" s="78">
+      <c r="B238" s="77">
         <v>44712</v>
       </c>
       <c r="C238" s="6" t="s">
@@ -9013,7 +9037,7 @@
       </c>
     </row>
     <row r="239" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B239" s="78">
+      <c r="B239" s="77">
         <v>10745</v>
       </c>
       <c r="C239" s="6" t="s">
@@ -9027,7 +9051,7 @@
       </c>
     </row>
     <row r="240" spans="2:5" ht="116" x14ac:dyDescent="0.35">
-      <c r="B240" s="78" t="s">
+      <c r="B240" s="77" t="s">
         <v>1220</v>
       </c>
       <c r="C240" s="4" t="s">
@@ -9041,7 +9065,7 @@
       </c>
     </row>
     <row r="241" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B241" s="78">
+      <c r="B241" s="77">
         <v>44714</v>
       </c>
       <c r="C241" s="4" t="s">
@@ -9055,7 +9079,7 @@
       </c>
     </row>
     <row r="242" spans="2:5" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B242" s="78">
+      <c r="B242" s="77">
         <v>25721</v>
       </c>
       <c r="C242" s="4" t="s">
@@ -9069,7 +9093,7 @@
       </c>
     </row>
     <row r="243" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B243" s="78">
+      <c r="B243" s="77">
         <v>32296</v>
       </c>
       <c r="C243" s="8" t="s">
@@ -9083,7 +9107,7 @@
       </c>
     </row>
     <row r="244" spans="2:5" ht="116" x14ac:dyDescent="0.35">
-      <c r="B244" s="78">
+      <c r="B244" s="77">
         <v>520</v>
       </c>
       <c r="C244" s="4" t="s">
@@ -9097,7 +9121,7 @@
       </c>
     </row>
     <row r="245" spans="2:5" ht="116" x14ac:dyDescent="0.35">
-      <c r="B245" s="78">
+      <c r="B245" s="77">
         <v>16957</v>
       </c>
       <c r="C245" s="4" t="s">
@@ -9111,7 +9135,7 @@
       </c>
     </row>
     <row r="246" spans="2:5" ht="174" x14ac:dyDescent="0.35">
-      <c r="B246" s="78" t="s">
+      <c r="B246" s="77" t="s">
         <v>1221</v>
       </c>
       <c r="C246" s="4" t="s">
@@ -9125,7 +9149,7 @@
       </c>
     </row>
     <row r="247" spans="2:5" ht="116" x14ac:dyDescent="0.35">
-      <c r="B247" s="78">
+      <c r="B247" s="77">
         <v>26455</v>
       </c>
       <c r="C247" s="4" t="s">
@@ -9139,7 +9163,7 @@
       </c>
     </row>
     <row r="248" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B248" s="78">
+      <c r="B248" s="77">
         <v>888</v>
       </c>
       <c r="C248" s="4" t="s">
@@ -9153,7 +9177,7 @@
       </c>
     </row>
     <row r="249" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B249" s="78" t="s">
+      <c r="B249" s="77" t="s">
         <v>1222</v>
       </c>
       <c r="C249" s="4" t="s">
@@ -9167,7 +9191,7 @@
       </c>
     </row>
     <row r="250" spans="2:5" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B250" s="78" t="s">
+      <c r="B250" s="77" t="s">
         <v>1223</v>
       </c>
       <c r="C250" s="4" t="s">
@@ -9181,7 +9205,7 @@
       </c>
     </row>
     <row r="251" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B251" s="78">
+      <c r="B251" s="77">
         <v>13309</v>
       </c>
       <c r="C251" s="4" t="s">
@@ -9195,7 +9219,7 @@
       </c>
     </row>
     <row r="252" spans="2:5" ht="116" x14ac:dyDescent="0.35">
-      <c r="B252" s="78">
+      <c r="B252" s="77">
         <v>17692</v>
       </c>
       <c r="C252" s="4" t="s">
@@ -9209,7 +9233,7 @@
       </c>
     </row>
     <row r="253" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B253" s="78">
+      <c r="B253" s="77">
         <v>161</v>
       </c>
       <c r="C253" s="4" t="s">
@@ -9223,7 +9247,7 @@
       </c>
     </row>
     <row r="254" spans="2:5" ht="174" x14ac:dyDescent="0.35">
-      <c r="B254" s="78">
+      <c r="B254" s="77">
         <v>17327</v>
       </c>
       <c r="C254" s="4" t="s">
@@ -9237,7 +9261,7 @@
       </c>
     </row>
     <row r="255" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B255" s="78">
+      <c r="B255" s="77">
         <v>40703</v>
       </c>
       <c r="C255" s="4" t="s">
@@ -9251,7 +9275,7 @@
       </c>
     </row>
     <row r="256" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B256" s="78">
+      <c r="B256" s="77">
         <v>20981</v>
       </c>
       <c r="C256" s="4" t="s">
@@ -9265,7 +9289,7 @@
       </c>
     </row>
     <row r="257" spans="2:5" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B257" s="78" t="s">
+      <c r="B257" s="77" t="s">
         <v>1224</v>
       </c>
       <c r="C257" s="8" t="s">
@@ -9279,7 +9303,7 @@
       </c>
     </row>
     <row r="258" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B258" s="78">
+      <c r="B258" s="77">
         <v>27923</v>
       </c>
       <c r="C258" s="4" t="s">
@@ -9293,7 +9317,7 @@
       </c>
     </row>
     <row r="259" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B259" s="78" t="s">
+      <c r="B259" s="77" t="s">
         <v>1225</v>
       </c>
       <c r="C259" s="4" t="s">
@@ -9307,7 +9331,7 @@
       </c>
     </row>
     <row r="260" spans="2:5" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B260" s="78" t="s">
+      <c r="B260" s="77" t="s">
         <v>1226</v>
       </c>
       <c r="C260" s="4" t="s">
@@ -9321,7 +9345,7 @@
       </c>
     </row>
     <row r="261" spans="2:5" ht="116" x14ac:dyDescent="0.35">
-      <c r="B261" s="78">
+      <c r="B261" s="77">
         <v>40708</v>
       </c>
       <c r="C261" s="4" t="s">
@@ -9335,7 +9359,7 @@
       </c>
     </row>
     <row r="262" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B262" s="78" t="s">
+      <c r="B262" s="77" t="s">
         <v>1227</v>
       </c>
       <c r="C262" s="4" t="s">
@@ -9349,7 +9373,7 @@
       </c>
     </row>
     <row r="263" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B263" s="78">
+      <c r="B263" s="77">
         <v>9299</v>
       </c>
       <c r="C263" s="4" t="s">
@@ -9363,7 +9387,7 @@
       </c>
     </row>
     <row r="264" spans="2:5" ht="116" x14ac:dyDescent="0.35">
-      <c r="B264" s="78" t="s">
+      <c r="B264" s="77" t="s">
         <v>1228</v>
       </c>
       <c r="C264" s="4" t="s">
@@ -9377,7 +9401,7 @@
       </c>
     </row>
     <row r="265" spans="2:5" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B265" s="78">
+      <c r="B265" s="77">
         <v>10396</v>
       </c>
       <c r="C265" s="4" t="s">
@@ -9391,7 +9415,7 @@
       </c>
     </row>
     <row r="266" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B266" s="78">
+      <c r="B266" s="77">
         <v>44365</v>
       </c>
       <c r="C266" s="4" t="s">
@@ -9405,7 +9429,7 @@
       </c>
     </row>
     <row r="267" spans="2:5" ht="116" x14ac:dyDescent="0.35">
-      <c r="B267" s="78" t="s">
+      <c r="B267" s="77" t="s">
         <v>1229</v>
       </c>
       <c r="C267" s="4" t="s">
@@ -9419,7 +9443,7 @@
       </c>
     </row>
     <row r="268" spans="2:5" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B268" s="78">
+      <c r="B268" s="77">
         <v>18068</v>
       </c>
       <c r="C268" s="4" t="s">
@@ -9433,7 +9457,7 @@
       </c>
     </row>
     <row r="269" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B269" s="78">
+      <c r="B269" s="77">
         <v>26470</v>
       </c>
       <c r="C269" s="4" t="s">
@@ -9447,7 +9471,7 @@
       </c>
     </row>
     <row r="270" spans="2:5" ht="116" x14ac:dyDescent="0.35">
-      <c r="B270" s="78">
+      <c r="B270" s="77">
         <v>42176</v>
       </c>
       <c r="C270" s="4" t="s">
@@ -9461,7 +9485,7 @@
       </c>
     </row>
     <row r="271" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B271" s="79">
+      <c r="B271" s="78">
         <v>17706</v>
       </c>
       <c r="C271" s="39" t="s">
@@ -9474,8 +9498,8 @@
         <v>658</v>
       </c>
     </row>
-    <row r="272" spans="2:5" ht="174" x14ac:dyDescent="0.35">
-      <c r="B272" s="78">
+    <row r="272" spans="2:5" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="B272" s="77">
         <v>174</v>
       </c>
       <c r="C272" s="39" t="s">
@@ -9489,7 +9513,7 @@
       </c>
     </row>
     <row r="273" spans="2:5" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B273" s="82" t="s">
+      <c r="B273" s="81" t="s">
         <v>1230</v>
       </c>
       <c r="C273" s="39" t="s">
@@ -9503,7 +9527,7 @@
       </c>
     </row>
     <row r="274" spans="2:5" ht="174" x14ac:dyDescent="0.35">
-      <c r="B274" s="82" t="s">
+      <c r="B274" s="81" t="s">
         <v>1231</v>
       </c>
       <c r="C274" s="4" t="s">
@@ -9517,7 +9541,7 @@
       </c>
     </row>
     <row r="275" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B275" s="78" t="s">
+      <c r="B275" s="77" t="s">
         <v>1232</v>
       </c>
       <c r="C275" s="4" t="s">
@@ -9531,7 +9555,7 @@
       </c>
     </row>
     <row r="276" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B276" s="78">
+      <c r="B276" s="77">
         <v>3099</v>
       </c>
       <c r="C276" s="4" t="s">
@@ -9545,7 +9569,7 @@
       </c>
     </row>
     <row r="277" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B277" s="78">
+      <c r="B277" s="77">
         <v>6022</v>
       </c>
       <c r="C277" s="4" t="s">
@@ -9559,7 +9583,7 @@
       </c>
     </row>
     <row r="278" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B278" s="78" t="s">
+      <c r="B278" s="77" t="s">
         <v>1233</v>
       </c>
       <c r="C278" s="4" t="s">
@@ -9573,7 +9597,7 @@
       </c>
     </row>
     <row r="279" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B279" s="78">
+      <c r="B279" s="77">
         <v>26478</v>
       </c>
       <c r="C279" s="4" t="s">
@@ -9587,7 +9611,7 @@
       </c>
     </row>
     <row r="280" spans="2:5" ht="174" x14ac:dyDescent="0.35">
-      <c r="B280" s="78">
+      <c r="B280" s="77">
         <v>546</v>
       </c>
       <c r="C280" s="4" t="s">
@@ -9601,7 +9625,7 @@
       </c>
     </row>
     <row r="281" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B281" s="78" t="s">
+      <c r="B281" s="77" t="s">
         <v>1234</v>
       </c>
       <c r="C281" s="4" t="s">
@@ -9615,7 +9639,7 @@
       </c>
     </row>
     <row r="282" spans="2:5" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="B282" s="78" t="s">
+      <c r="B282" s="77" t="s">
         <v>1235</v>
       </c>
       <c r="C282" s="8" t="s">
@@ -9629,7 +9653,7 @@
       </c>
     </row>
     <row r="283" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B283" s="78">
+      <c r="B283" s="77">
         <v>6391</v>
       </c>
       <c r="C283" s="8" t="s">
@@ -9643,7 +9667,7 @@
       </c>
     </row>
     <row r="284" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B284" s="78">
+      <c r="B284" s="77">
         <v>25020</v>
       </c>
       <c r="C284" s="6" t="s">
@@ -9657,7 +9681,7 @@
       </c>
     </row>
     <row r="285" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B285" s="83">
+      <c r="B285" s="82">
         <v>4931</v>
       </c>
       <c r="C285" s="49" t="s">
@@ -9671,7 +9695,7 @@
       </c>
     </row>
     <row r="286" spans="2:5" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B286" s="83">
+      <c r="B286" s="82">
         <v>18446</v>
       </c>
       <c r="C286" s="64" t="s">
@@ -9680,10 +9704,12 @@
       <c r="D286" s="50" t="s">
         <v>781</v>
       </c>
-      <c r="E286" s="29"/>
+      <c r="E286" s="29" t="s">
+        <v>1313</v>
+      </c>
     </row>
     <row r="287" spans="2:5" ht="174" x14ac:dyDescent="0.35">
-      <c r="B287" s="78">
+      <c r="B287" s="77">
         <v>18446</v>
       </c>
       <c r="C287" s="51" t="s">
@@ -9697,7 +9723,7 @@
       </c>
     </row>
     <row r="288" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B288" s="78">
+      <c r="B288" s="77">
         <v>11873</v>
       </c>
       <c r="C288" s="4" t="s">
@@ -9711,7 +9737,7 @@
       </c>
     </row>
     <row r="289" spans="2:5" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B289" s="78" t="s">
+      <c r="B289" s="77" t="s">
         <v>1236</v>
       </c>
       <c r="C289" s="4" t="s">
@@ -9725,7 +9751,7 @@
       </c>
     </row>
     <row r="290" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B290" s="78">
+      <c r="B290" s="77">
         <v>916</v>
       </c>
       <c r="C290" s="4" t="s">
@@ -9739,7 +9765,7 @@
       </c>
     </row>
     <row r="291" spans="2:5" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="B291" s="78">
+      <c r="B291" s="77">
         <v>23196</v>
       </c>
       <c r="C291" s="4" t="s">
@@ -9753,7 +9779,7 @@
       </c>
     </row>
     <row r="292" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B292" s="78">
+      <c r="B292" s="77">
         <v>31599</v>
       </c>
       <c r="C292" s="4" t="s">
@@ -9767,7 +9793,7 @@
       </c>
     </row>
     <row r="293" spans="2:5" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B293" s="78">
+      <c r="B293" s="77">
         <v>11145</v>
       </c>
       <c r="C293" s="4" t="s">
@@ -9781,7 +9807,7 @@
       </c>
     </row>
     <row r="294" spans="2:5" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B294" s="78">
+      <c r="B294" s="77">
         <v>44384</v>
       </c>
       <c r="C294" s="8" t="s">
@@ -9795,7 +9821,7 @@
       </c>
     </row>
     <row r="295" spans="2:5" ht="116" x14ac:dyDescent="0.35">
-      <c r="B295" s="78" t="s">
+      <c r="B295" s="77" t="s">
         <v>1237</v>
       </c>
       <c r="C295" s="4" t="s">
@@ -9809,7 +9835,7 @@
       </c>
     </row>
     <row r="296" spans="2:5" ht="174" x14ac:dyDescent="0.35">
-      <c r="B296" s="78">
+      <c r="B296" s="77">
         <v>1285</v>
       </c>
       <c r="C296" s="4" t="s">
@@ -9823,7 +9849,7 @@
       </c>
     </row>
     <row r="297" spans="2:5" ht="116" x14ac:dyDescent="0.35">
-      <c r="B297" s="78">
+      <c r="B297" s="77">
         <v>9322</v>
       </c>
       <c r="C297" s="4" t="s">
@@ -9837,7 +9863,7 @@
       </c>
     </row>
     <row r="298" spans="2:5" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B298" s="78">
+      <c r="B298" s="77">
         <v>41830</v>
       </c>
       <c r="C298" s="4" t="s">
@@ -9851,7 +9877,7 @@
       </c>
     </row>
     <row r="299" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B299" s="78">
+      <c r="B299" s="77">
         <v>33065</v>
       </c>
       <c r="C299" s="4" t="s">
@@ -9865,7 +9891,7 @@
       </c>
     </row>
     <row r="300" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B300" s="78" t="s">
+      <c r="B300" s="77" t="s">
         <v>1238</v>
       </c>
       <c r="C300" s="4" t="s">
@@ -9879,7 +9905,7 @@
       </c>
     </row>
     <row r="301" spans="2:5" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B301" s="78" t="s">
+      <c r="B301" s="77" t="s">
         <v>1239</v>
       </c>
       <c r="C301" s="4" t="s">
@@ -9893,7 +9919,7 @@
       </c>
     </row>
     <row r="302" spans="2:5" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B302" s="78" t="s">
+      <c r="B302" s="77" t="s">
         <v>1240</v>
       </c>
       <c r="C302" s="6" t="s">
@@ -9907,7 +9933,7 @@
       </c>
     </row>
     <row r="303" spans="2:5" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B303" s="78">
+      <c r="B303" s="77">
         <v>3484</v>
       </c>
       <c r="C303" s="4" t="s">
@@ -9921,7 +9947,7 @@
       </c>
     </row>
     <row r="304" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B304" s="78">
+      <c r="B304" s="77">
         <v>3485</v>
       </c>
       <c r="C304" s="6" t="s">
@@ -9935,7 +9961,7 @@
       </c>
     </row>
     <row r="305" spans="2:5" ht="116" x14ac:dyDescent="0.35">
-      <c r="B305" s="78" t="s">
+      <c r="B305" s="77" t="s">
         <v>1241</v>
       </c>
       <c r="C305" s="6" t="s">
@@ -9949,7 +9975,7 @@
       </c>
     </row>
     <row r="306" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B306" s="78" t="s">
+      <c r="B306" s="77" t="s">
         <v>1242</v>
       </c>
       <c r="C306" s="6" t="s">
@@ -9963,7 +9989,7 @@
       </c>
     </row>
     <row r="307" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B307" s="78">
+      <c r="B307" s="77">
         <v>7139</v>
       </c>
       <c r="C307" s="6" t="s">
@@ -9977,7 +10003,7 @@
       </c>
     </row>
     <row r="308" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B308" s="78" t="s">
+      <c r="B308" s="77" t="s">
         <v>1243</v>
       </c>
       <c r="C308" s="6" t="s">
@@ -9991,7 +10017,7 @@
       </c>
     </row>
     <row r="309" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B309" s="78" t="s">
+      <c r="B309" s="77" t="s">
         <v>1244</v>
       </c>
       <c r="C309" s="6" t="s">
@@ -10005,7 +10031,7 @@
       </c>
     </row>
     <row r="310" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B310" s="78">
+      <c r="B310" s="77">
         <v>33439</v>
       </c>
       <c r="C310" s="6" t="s">
@@ -10019,7 +10045,7 @@
       </c>
     </row>
     <row r="311" spans="2:5" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B311" s="78">
+      <c r="B311" s="77">
         <v>23943</v>
       </c>
       <c r="C311" s="6" t="s">
@@ -10033,7 +10059,7 @@
       </c>
     </row>
     <row r="312" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B312" s="78">
+      <c r="B312" s="77">
         <v>2394</v>
       </c>
       <c r="C312" s="6" t="s">
@@ -10047,7 +10073,7 @@
       </c>
     </row>
     <row r="313" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B313" s="78">
+      <c r="B313" s="77">
         <v>17370</v>
       </c>
       <c r="C313" s="6" t="s">
@@ -10061,7 +10087,7 @@
       </c>
     </row>
     <row r="314" spans="2:5" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B314" s="78" t="s">
+      <c r="B314" s="77" t="s">
         <v>1245</v>
       </c>
       <c r="C314" s="6" t="s">
@@ -10075,7 +10101,7 @@
       </c>
     </row>
     <row r="315" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B315" s="78">
+      <c r="B315" s="77">
         <v>2396</v>
       </c>
       <c r="C315" s="6" t="s">
@@ -10089,7 +10115,7 @@
       </c>
     </row>
     <row r="316" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B316" s="78">
+      <c r="B316" s="77">
         <v>9336</v>
       </c>
       <c r="C316" s="6" t="s">
@@ -10103,7 +10129,7 @@
       </c>
     </row>
     <row r="317" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B317" s="78">
+      <c r="B317" s="77">
         <v>4223</v>
       </c>
       <c r="C317" s="6" t="s">
@@ -10117,7 +10143,7 @@
       </c>
     </row>
     <row r="318" spans="2:5" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B318" s="78">
+      <c r="B318" s="77">
         <v>3129</v>
       </c>
       <c r="C318" s="6" t="s">
@@ -10131,7 +10157,7 @@
       </c>
     </row>
     <row r="319" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B319" s="78">
+      <c r="B319" s="77">
         <v>36367</v>
       </c>
       <c r="C319" s="9" t="s">
@@ -10145,7 +10171,7 @@
       </c>
     </row>
     <row r="320" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B320" s="78">
+      <c r="B320" s="77">
         <v>42212</v>
       </c>
       <c r="C320" s="6" t="s">
@@ -10159,7 +10185,7 @@
       </c>
     </row>
     <row r="321" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B321" s="78">
+      <c r="B321" s="77">
         <v>4957</v>
       </c>
       <c r="C321" s="6" t="s">
@@ -10173,7 +10199,7 @@
       </c>
     </row>
     <row r="322" spans="2:5" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B322" s="78">
+      <c r="B322" s="77">
         <v>14454</v>
       </c>
       <c r="C322" s="6" t="s">
@@ -10187,7 +10213,7 @@
       </c>
     </row>
     <row r="323" spans="2:5" ht="116" x14ac:dyDescent="0.35">
-      <c r="B323" s="78">
+      <c r="B323" s="77">
         <v>35275</v>
       </c>
       <c r="C323" s="6" t="s">
@@ -10201,7 +10227,7 @@
       </c>
     </row>
     <row r="324" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B324" s="78" t="s">
+      <c r="B324" s="77" t="s">
         <v>1246</v>
       </c>
       <c r="C324" s="21" t="s">
@@ -10215,7 +10241,7 @@
       </c>
     </row>
     <row r="325" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B325" s="78">
+      <c r="B325" s="77">
         <v>22127</v>
       </c>
       <c r="C325" s="6" t="s">
@@ -10229,7 +10255,7 @@
       </c>
     </row>
     <row r="326" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B326" s="78" t="s">
+      <c r="B326" s="77" t="s">
         <v>1247</v>
       </c>
       <c r="C326" s="6" t="s">
@@ -10243,7 +10269,7 @@
       </c>
     </row>
     <row r="327" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B327" s="78" t="s">
+      <c r="B327" s="77" t="s">
         <v>1248</v>
       </c>
       <c r="C327" s="6" t="s">
@@ -10257,7 +10283,7 @@
       </c>
     </row>
     <row r="328" spans="2:5" ht="203" x14ac:dyDescent="0.35">
-      <c r="B328" s="78" t="s">
+      <c r="B328" s="77" t="s">
         <v>1249</v>
       </c>
       <c r="C328" s="6" t="s">
@@ -10271,7 +10297,7 @@
       </c>
     </row>
     <row r="329" spans="2:5" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B329" s="78">
+      <c r="B329" s="77">
         <v>7519</v>
       </c>
       <c r="C329" s="6" t="s">
@@ -10285,7 +10311,7 @@
       </c>
     </row>
     <row r="330" spans="2:5" ht="116" x14ac:dyDescent="0.35">
-      <c r="B330" s="78" t="s">
+      <c r="B330" s="77" t="s">
         <v>1250</v>
       </c>
       <c r="C330" s="6" t="s">
@@ -10299,7 +10325,7 @@
       </c>
     </row>
     <row r="331" spans="2:5" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B331" s="78">
+      <c r="B331" s="77">
         <v>216</v>
       </c>
       <c r="C331" s="9" t="s">
@@ -10313,7 +10339,7 @@
       </c>
     </row>
     <row r="332" spans="2:5" ht="116" x14ac:dyDescent="0.35">
-      <c r="B332" s="78" t="s">
+      <c r="B332" s="77" t="s">
         <v>1251</v>
       </c>
       <c r="C332" s="9" t="s">
@@ -10327,7 +10353,7 @@
       </c>
     </row>
     <row r="333" spans="2:5" ht="116" x14ac:dyDescent="0.35">
-      <c r="B333" s="78">
+      <c r="B333" s="77">
         <v>10809</v>
       </c>
       <c r="C333" s="9" t="s">
@@ -10341,7 +10367,7 @@
       </c>
     </row>
     <row r="334" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B334" s="78" t="s">
+      <c r="B334" s="77" t="s">
         <v>1252</v>
       </c>
       <c r="C334" s="6" t="s">
@@ -10355,7 +10381,7 @@
       </c>
     </row>
     <row r="335" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B335" s="78">
+      <c r="B335" s="77">
         <v>18480</v>
       </c>
       <c r="C335" s="9" t="s">
@@ -10369,7 +10395,7 @@
       </c>
     </row>
     <row r="336" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B336" s="78">
+      <c r="B336" s="77">
         <v>18480</v>
       </c>
       <c r="C336" s="21" t="s">
@@ -10383,7 +10409,7 @@
       </c>
     </row>
     <row r="337" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B337" s="78">
+      <c r="B337" s="77">
         <v>9350</v>
       </c>
       <c r="C337" s="6" t="s">
@@ -10397,7 +10423,7 @@
       </c>
     </row>
     <row r="338" spans="2:5" ht="116" x14ac:dyDescent="0.35">
-      <c r="B338" s="78" t="s">
+      <c r="B338" s="77" t="s">
         <v>1253</v>
       </c>
       <c r="C338" s="6" t="s">
@@ -10411,7 +10437,7 @@
       </c>
     </row>
     <row r="339" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B339" s="78" t="s">
+      <c r="B339" s="77" t="s">
         <v>1254</v>
       </c>
       <c r="C339" s="6" t="s">
@@ -10425,7 +10451,7 @@
       </c>
     </row>
     <row r="340" spans="2:5" ht="116" x14ac:dyDescent="0.35">
-      <c r="B340" s="78">
+      <c r="B340" s="77">
         <v>15561</v>
       </c>
       <c r="C340" s="6" t="s">
@@ -10439,7 +10465,7 @@
       </c>
     </row>
     <row r="341" spans="2:5" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B341" s="78">
+      <c r="B341" s="77">
         <v>25789</v>
       </c>
       <c r="C341" s="6" t="s">
@@ -10453,7 +10479,7 @@
       </c>
     </row>
     <row r="342" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B342" s="78">
+      <c r="B342" s="77">
         <v>11180</v>
       </c>
       <c r="C342" s="6" t="s">
@@ -10467,7 +10493,7 @@
       </c>
     </row>
     <row r="343" spans="2:5" ht="174" x14ac:dyDescent="0.35">
-      <c r="B343" s="78" t="s">
+      <c r="B343" s="77" t="s">
         <v>1255</v>
       </c>
       <c r="C343" s="6" t="s">
@@ -10481,7 +10507,7 @@
       </c>
     </row>
     <row r="344" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B344" s="78">
+      <c r="B344" s="77">
         <v>11546</v>
       </c>
       <c r="C344" s="6" t="s">
@@ -10495,7 +10521,7 @@
       </c>
     </row>
     <row r="345" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B345" s="78">
+      <c r="B345" s="77">
         <v>41133</v>
       </c>
       <c r="C345" s="6" t="s">
@@ -10509,7 +10535,7 @@
       </c>
     </row>
     <row r="346" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B346" s="78">
+      <c r="B346" s="77">
         <v>7164</v>
       </c>
       <c r="C346" s="6" t="s">
@@ -10523,7 +10549,7 @@
       </c>
     </row>
     <row r="347" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B347" s="78" t="s">
+      <c r="B347" s="77" t="s">
         <v>1256</v>
       </c>
       <c r="C347" s="9" t="s">
@@ -10537,7 +10563,7 @@
       </c>
     </row>
     <row r="348" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B348" s="78" t="s">
+      <c r="B348" s="77" t="s">
         <v>1257</v>
       </c>
       <c r="C348" s="9" t="s">
@@ -10551,7 +10577,7 @@
       </c>
     </row>
     <row r="349" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B349" s="78">
+      <c r="B349" s="77">
         <v>2053</v>
       </c>
       <c r="C349" s="6" t="s">
@@ -10565,7 +10591,7 @@
       </c>
     </row>
     <row r="350" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B350" s="78">
+      <c r="B350" s="77">
         <v>17393</v>
       </c>
       <c r="C350" s="6" t="s">
@@ -10579,7 +10605,7 @@
       </c>
     </row>
     <row r="351" spans="2:5" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B351" s="78">
+      <c r="B351" s="77">
         <v>17394</v>
       </c>
       <c r="C351" s="6" t="s">
@@ -10593,7 +10619,7 @@
       </c>
     </row>
     <row r="352" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B352" s="79">
+      <c r="B352" s="78">
         <v>1690</v>
       </c>
       <c r="C352" s="7" t="s">
@@ -10607,7 +10633,7 @@
       </c>
     </row>
     <row r="353" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B353" s="78" t="s">
+      <c r="B353" s="77" t="s">
         <v>1258</v>
       </c>
       <c r="C353" s="60" t="s">
@@ -10621,7 +10647,7 @@
       </c>
     </row>
     <row r="354" spans="2:5" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B354" s="82">
+      <c r="B354" s="81">
         <v>34928</v>
       </c>
       <c r="C354" s="21" t="s">
@@ -10635,7 +10661,7 @@
       </c>
     </row>
     <row r="355" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B355" s="84">
+      <c r="B355" s="83">
         <v>44060</v>
       </c>
       <c r="C355" s="69" t="s">
@@ -10649,7 +10675,7 @@
       </c>
     </row>
     <row r="356" spans="2:5" ht="116" x14ac:dyDescent="0.35">
-      <c r="B356" s="84">
+      <c r="B356" s="83">
         <v>3517</v>
       </c>
       <c r="C356" s="63" t="s">
@@ -10663,7 +10689,7 @@
       </c>
     </row>
     <row r="357" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B357" s="84">
+      <c r="B357" s="83">
         <v>16667</v>
       </c>
       <c r="C357" s="63" t="s">
@@ -10677,7 +10703,7 @@
       </c>
     </row>
     <row r="358" spans="2:5" ht="174" x14ac:dyDescent="0.35">
-      <c r="B358" s="78">
+      <c r="B358" s="77">
         <v>1692</v>
       </c>
       <c r="C358" s="20" t="s">
@@ -10691,7 +10717,7 @@
       </c>
     </row>
     <row r="359" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B359" s="78" t="s">
+      <c r="B359" s="77" t="s">
         <v>1259</v>
       </c>
       <c r="C359" s="47" t="s">
@@ -10705,7 +10731,7 @@
       </c>
     </row>
     <row r="360" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B360" s="78" t="s">
+      <c r="B360" s="77" t="s">
         <v>1260</v>
       </c>
       <c r="C360" s="47" t="s">
@@ -10719,7 +10745,7 @@
       </c>
     </row>
     <row r="361" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B361" s="78" t="s">
+      <c r="B361" s="77" t="s">
         <v>1261</v>
       </c>
       <c r="C361" s="47" t="s">
@@ -10733,7 +10759,7 @@
       </c>
     </row>
     <row r="362" spans="2:5" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B362" s="78">
+      <c r="B362" s="77">
         <v>5711</v>
       </c>
       <c r="C362" s="21" t="s">
@@ -10747,7 +10773,7 @@
       </c>
     </row>
     <row r="363" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B363" s="78">
+      <c r="B363" s="77">
         <v>11556</v>
       </c>
       <c r="C363" s="47" t="s">
@@ -10761,7 +10787,7 @@
       </c>
     </row>
     <row r="364" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B364" s="78">
+      <c r="B364" s="77">
         <v>38950</v>
       </c>
       <c r="C364" s="21" t="s">
@@ -10775,7 +10801,7 @@
       </c>
     </row>
     <row r="365" spans="2:5" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B365" s="78">
+      <c r="B365" s="77">
         <v>30185</v>
       </c>
       <c r="C365" s="47" t="s">
@@ -10789,7 +10815,7 @@
       </c>
     </row>
     <row r="366" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B366" s="79">
+      <c r="B366" s="78">
         <v>25073</v>
       </c>
       <c r="C366" s="68" t="s">
@@ -10803,7 +10829,7 @@
       </c>
     </row>
     <row r="367" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B367" s="78" t="s">
+      <c r="B367" s="77" t="s">
         <v>1262</v>
       </c>
       <c r="C367" s="6" t="s">
@@ -10817,7 +10843,7 @@
       </c>
     </row>
     <row r="368" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B368" s="78">
+      <c r="B368" s="77">
         <v>38952</v>
       </c>
       <c r="C368" s="9" t="s">
@@ -10831,7 +10857,7 @@
       </c>
     </row>
     <row r="369" spans="2:5" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B369" s="82">
+      <c r="B369" s="81">
         <v>4254</v>
       </c>
       <c r="C369" s="21" t="s">
@@ -10845,7 +10871,7 @@
       </c>
     </row>
     <row r="370" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B370" s="78">
+      <c r="B370" s="77">
         <v>3159</v>
       </c>
       <c r="C370" s="47" t="s">
@@ -10859,7 +10885,7 @@
       </c>
     </row>
     <row r="371" spans="2:5" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B371" s="78">
+      <c r="B371" s="77">
         <v>16309</v>
       </c>
       <c r="C371" s="47" t="s">
@@ -10873,7 +10899,7 @@
       </c>
     </row>
     <row r="372" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B372" s="78">
+      <c r="B372" s="77">
         <v>5352</v>
       </c>
       <c r="C372" s="47" t="s">
@@ -10887,7 +10913,7 @@
       </c>
     </row>
     <row r="373" spans="2:5" ht="116" x14ac:dyDescent="0.35">
-      <c r="B373" s="78" t="s">
+      <c r="B373" s="77" t="s">
         <v>1263</v>
       </c>
       <c r="C373" s="52" t="s">
@@ -10901,7 +10927,7 @@
       </c>
     </row>
     <row r="374" spans="2:5" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B374" s="83" t="s">
+      <c r="B374" s="82" t="s">
         <v>1264</v>
       </c>
       <c r="C374" s="6" t="s">
@@ -10915,7 +10941,7 @@
       </c>
     </row>
     <row r="375" spans="2:5" ht="116" x14ac:dyDescent="0.35">
-      <c r="B375" s="83">
+      <c r="B375" s="82">
         <v>10468</v>
       </c>
       <c r="C375" s="20" t="s">
@@ -10929,7 +10955,7 @@
       </c>
     </row>
     <row r="376" spans="2:5" ht="116" x14ac:dyDescent="0.35">
-      <c r="B376" s="83" t="s">
+      <c r="B376" s="82" t="s">
         <v>1265</v>
       </c>
       <c r="C376" s="20" t="s">
@@ -10943,7 +10969,7 @@
       </c>
     </row>
     <row r="377" spans="2:5" ht="155" x14ac:dyDescent="0.35">
-      <c r="B377" s="83" t="s">
+      <c r="B377" s="82" t="s">
         <v>1266</v>
       </c>
       <c r="C377" s="20" t="s">
@@ -10957,7 +10983,7 @@
       </c>
     </row>
     <row r="378" spans="2:5" ht="139.5" x14ac:dyDescent="0.35">
-      <c r="B378" s="83">
+      <c r="B378" s="82">
         <v>41150</v>
       </c>
       <c r="C378" s="58" t="s">
@@ -10971,7 +10997,7 @@
       </c>
     </row>
     <row r="379" spans="2:5" ht="170.5" x14ac:dyDescent="0.35">
-      <c r="B379" s="78" t="s">
+      <c r="B379" s="77" t="s">
         <v>1267</v>
       </c>
       <c r="C379" s="58" t="s">
@@ -10985,7 +11011,7 @@
       </c>
     </row>
     <row r="380" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B380" s="78">
+      <c r="B380" s="77">
         <v>7183</v>
       </c>
       <c r="C380" s="47" t="s">
@@ -10999,7 +11025,7 @@
       </c>
     </row>
     <row r="381" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B381" s="78" t="s">
+      <c r="B381" s="77" t="s">
         <v>1298</v>
       </c>
       <c r="C381" s="6" t="s">
@@ -11013,7 +11039,7 @@
       </c>
     </row>
     <row r="382" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B382" s="78">
+      <c r="B382" s="77">
         <v>17047</v>
       </c>
       <c r="C382" s="6" t="s">
@@ -11027,7 +11053,7 @@
       </c>
     </row>
     <row r="383" spans="2:5" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B383" s="78">
+      <c r="B383" s="77">
         <v>19605</v>
       </c>
       <c r="C383" s="6" t="s">
@@ -11041,7 +11067,7 @@
       </c>
     </row>
     <row r="384" spans="2:5" ht="116" x14ac:dyDescent="0.35">
-      <c r="B384" s="78" t="s">
+      <c r="B384" s="77" t="s">
         <v>1299</v>
       </c>
       <c r="C384" s="6" t="s">
@@ -11055,7 +11081,7 @@
       </c>
     </row>
     <row r="385" spans="2:5" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="B385" s="78">
+      <c r="B385" s="77">
         <v>22894</v>
       </c>
       <c r="C385" s="6" t="s">
@@ -11069,7 +11095,7 @@
       </c>
     </row>
     <row r="386" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B386" s="78" t="s">
+      <c r="B386" s="77" t="s">
         <v>1300</v>
       </c>
       <c r="C386" s="6" t="s">
@@ -11083,7 +11109,7 @@
       </c>
     </row>
     <row r="387" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B387" s="78" t="s">
+      <c r="B387" s="77" t="s">
         <v>1301</v>
       </c>
       <c r="C387" s="6" t="s">
@@ -11097,7 +11123,7 @@
       </c>
     </row>
     <row r="388" spans="2:5" ht="116" x14ac:dyDescent="0.35">
-      <c r="B388" s="78">
+      <c r="B388" s="77">
         <v>9748</v>
       </c>
       <c r="C388" s="6" t="s">
@@ -11111,7 +11137,7 @@
       </c>
     </row>
     <row r="389" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B389" s="78">
+      <c r="B389" s="77">
         <v>9749</v>
       </c>
       <c r="C389" s="9" t="s">
@@ -11125,7 +11151,7 @@
       </c>
     </row>
     <row r="390" spans="2:5" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="B390" s="78" t="s">
+      <c r="B390" s="77" t="s">
         <v>1302</v>
       </c>
       <c r="C390" s="9" t="s">
@@ -11139,7 +11165,7 @@
       </c>
     </row>
     <row r="391" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B391" s="78">
+      <c r="B391" s="77">
         <v>32031</v>
       </c>
       <c r="C391" s="6" t="s">
@@ -11153,7 +11179,7 @@
       </c>
     </row>
     <row r="392" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B392" s="78">
+      <c r="B392" s="77">
         <v>7925</v>
       </c>
       <c r="C392" s="9" t="s">
@@ -11167,7 +11193,7 @@
       </c>
     </row>
     <row r="393" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B393" s="78" t="s">
+      <c r="B393" s="77" t="s">
         <v>1303</v>
       </c>
       <c r="C393" s="9" t="s">
@@ -11181,7 +11207,7 @@
       </c>
     </row>
     <row r="394" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B394" s="78">
+      <c r="B394" s="77">
         <v>11213</v>
       </c>
       <c r="C394" s="6" t="s">
@@ -11195,7 +11221,7 @@
       </c>
     </row>
     <row r="395" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B395" s="78" t="s">
+      <c r="B395" s="77" t="s">
         <v>1304</v>
       </c>
       <c r="C395" s="9" t="s">
@@ -11209,7 +11235,7 @@
       </c>
     </row>
     <row r="396" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B396" s="78">
+      <c r="B396" s="77">
         <v>10849</v>
       </c>
       <c r="C396" s="6" t="s">
@@ -11223,7 +11249,7 @@
       </c>
     </row>
     <row r="397" spans="2:5" ht="116" x14ac:dyDescent="0.35">
-      <c r="B397" s="78">
+      <c r="B397" s="77">
         <v>18155</v>
       </c>
       <c r="C397" s="6" t="s">
@@ -11237,7 +11263,7 @@
       </c>
     </row>
     <row r="398" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B398" s="78">
+      <c r="B398" s="77">
         <v>25096</v>
       </c>
       <c r="C398" s="6" t="s">
@@ -11251,7 +11277,7 @@
       </c>
     </row>
     <row r="399" spans="2:5" ht="116" x14ac:dyDescent="0.35">
-      <c r="B399" s="78">
+      <c r="B399" s="77">
         <v>6104</v>
       </c>
       <c r="C399" s="6" t="s">
@@ -11265,7 +11291,7 @@
       </c>
     </row>
     <row r="400" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B400" s="78">
+      <c r="B400" s="77">
         <v>5739</v>
       </c>
       <c r="C400" s="6" t="s">
@@ -11279,7 +11305,7 @@
       </c>
     </row>
     <row r="401" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B401" s="78" t="s">
+      <c r="B401" s="77" t="s">
         <v>1305</v>
       </c>
       <c r="C401" s="6" t="s">
@@ -11293,7 +11319,7 @@
       </c>
     </row>
     <row r="402" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B402" s="78" t="s">
+      <c r="B402" s="77" t="s">
         <v>1306</v>
       </c>
       <c r="C402" s="6" t="s">
@@ -11307,7 +11333,7 @@
       </c>
     </row>
     <row r="403" spans="2:5" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B403" s="78">
+      <c r="B403" s="77">
         <v>13412</v>
       </c>
       <c r="C403" s="9" t="s">
@@ -11321,7 +11347,7 @@
       </c>
     </row>
     <row r="404" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B404" s="78">
+      <c r="B404" s="77">
         <v>15604</v>
       </c>
       <c r="C404" s="6" t="s">
@@ -11335,7 +11361,7 @@
       </c>
     </row>
     <row r="405" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B405" s="78">
+      <c r="B405" s="77">
         <v>12317</v>
       </c>
       <c r="C405" s="6" t="s">
@@ -11349,7 +11375,7 @@
       </c>
     </row>
     <row r="406" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B406" s="78" t="s">
+      <c r="B406" s="77" t="s">
         <v>1307</v>
       </c>
       <c r="C406" s="6" t="s">
@@ -11363,7 +11389,7 @@
       </c>
     </row>
     <row r="407" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B407" s="78">
+      <c r="B407" s="77">
         <v>3553</v>
       </c>
       <c r="C407" s="6" t="s">
@@ -11377,7 +11403,7 @@
       </c>
     </row>
     <row r="408" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B408" s="78" t="s">
+      <c r="B408" s="77" t="s">
         <v>1268</v>
       </c>
       <c r="C408" s="9" t="s">
@@ -11391,7 +11417,7 @@
       </c>
     </row>
     <row r="409" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B409" s="78">
+      <c r="B409" s="77">
         <v>3189</v>
       </c>
       <c r="C409" s="6" t="s">
@@ -11405,7 +11431,7 @@
       </c>
     </row>
     <row r="410" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B410" s="78">
+      <c r="B410" s="77">
         <v>1362</v>
       </c>
       <c r="C410" s="6" t="s">
@@ -11419,7 +11445,7 @@
       </c>
     </row>
     <row r="411" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B411" s="78">
+      <c r="B411" s="77">
         <v>27295</v>
       </c>
       <c r="C411" s="21" t="s">
@@ -11433,7 +11459,7 @@
       </c>
     </row>
     <row r="412" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B412" s="78" t="s">
+      <c r="B412" s="77" t="s">
         <v>1308</v>
       </c>
       <c r="C412" s="6" t="s">
@@ -11447,7 +11473,7 @@
       </c>
     </row>
     <row r="413" spans="2:5" ht="116" x14ac:dyDescent="0.35">
-      <c r="B413" s="78">
+      <c r="B413" s="77">
         <v>6113</v>
       </c>
       <c r="C413" s="6" t="s">
@@ -11461,7 +11487,7 @@
       </c>
     </row>
     <row r="414" spans="2:5" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="B414" s="78">
+      <c r="B414" s="77">
         <v>44099</v>
       </c>
       <c r="C414" s="6" t="s">
@@ -11475,7 +11501,7 @@
       </c>
     </row>
     <row r="415" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B415" s="78" t="s">
+      <c r="B415" s="77" t="s">
         <v>1309</v>
       </c>
       <c r="C415" s="7" t="s">
@@ -11489,7 +11515,7 @@
       </c>
     </row>
     <row r="416" spans="2:5" ht="174" x14ac:dyDescent="0.35">
-      <c r="B416" s="79">
+      <c r="B416" s="78">
         <v>2827</v>
       </c>
       <c r="C416" s="40" t="s">
@@ -11503,7 +11529,7 @@
       </c>
     </row>
     <row r="417" spans="2:5" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B417" s="78">
+      <c r="B417" s="77">
         <v>10864</v>
       </c>
       <c r="C417" s="60" t="s">
@@ -11517,7 +11543,7 @@
       </c>
     </row>
     <row r="418" spans="2:5" ht="116" x14ac:dyDescent="0.35">
-      <c r="B418" s="82">
+      <c r="B418" s="81">
         <v>11230</v>
       </c>
       <c r="C418" s="21" t="s">
@@ -11531,7 +11557,7 @@
       </c>
     </row>
     <row r="419" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B419" s="78">
+      <c r="B419" s="77">
         <v>43008</v>
       </c>
       <c r="C419" s="6" t="s">
@@ -11545,7 +11571,7 @@
       </c>
     </row>
     <row r="420" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B420" s="78" t="s">
+      <c r="B420" s="77" t="s">
         <v>1269</v>
       </c>
       <c r="C420" s="6" t="s">
@@ -11559,7 +11585,7 @@
       </c>
     </row>
     <row r="421" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B421" s="78">
+      <c r="B421" s="77">
         <v>7214</v>
       </c>
       <c r="C421" s="7" t="s">
@@ -11573,7 +11599,7 @@
       </c>
     </row>
     <row r="422" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B422" s="78" t="s">
+      <c r="B422" s="77" t="s">
         <v>1270</v>
       </c>
       <c r="C422" s="7" t="s">
@@ -11587,7 +11613,7 @@
       </c>
     </row>
     <row r="423" spans="2:5" ht="174" x14ac:dyDescent="0.35">
-      <c r="B423" s="78">
+      <c r="B423" s="77">
         <v>2466</v>
       </c>
       <c r="C423" s="7" t="s">
@@ -11601,7 +11627,7 @@
       </c>
     </row>
     <row r="424" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B424" s="78" t="s">
+      <c r="B424" s="77" t="s">
         <v>1271</v>
       </c>
       <c r="C424" s="28" t="s">
@@ -11615,7 +11641,7 @@
       </c>
     </row>
     <row r="425" spans="2:5" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B425" s="83">
+      <c r="B425" s="82">
         <v>1737</v>
       </c>
       <c r="C425" s="28" t="s">
@@ -11629,7 +11655,7 @@
       </c>
     </row>
     <row r="426" spans="2:5" ht="124" x14ac:dyDescent="0.35">
-      <c r="B426" s="83" t="s">
+      <c r="B426" s="82" t="s">
         <v>1272</v>
       </c>
       <c r="C426" s="6" t="s">
@@ -11641,7 +11667,7 @@
       <c r="E426" s="9"/>
     </row>
     <row r="427" spans="2:5" ht="170.5" x14ac:dyDescent="0.35">
-      <c r="B427" s="83" t="s">
+      <c r="B427" s="82" t="s">
         <v>1273</v>
       </c>
       <c r="C427" s="6" t="s">
@@ -11655,7 +11681,7 @@
       </c>
     </row>
     <row r="428" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B428" s="78" t="s">
+      <c r="B428" s="77" t="s">
         <v>1274</v>
       </c>
       <c r="C428" s="20" t="s">
@@ -11669,7 +11695,7 @@
       </c>
     </row>
     <row r="429" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B429" s="78" t="s">
+      <c r="B429" s="77" t="s">
         <v>1275</v>
       </c>
       <c r="C429" s="6" t="s">
@@ -11683,7 +11709,7 @@
       </c>
     </row>
     <row r="430" spans="2:5" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B430" s="78" t="s">
+      <c r="B430" s="77" t="s">
         <v>1276</v>
       </c>
       <c r="C430" s="6" t="s">
@@ -11697,7 +11723,7 @@
       </c>
     </row>
     <row r="431" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B431" s="78">
+      <c r="B431" s="77">
         <v>5394</v>
       </c>
       <c r="C431" s="6" t="s">
@@ -11711,7 +11737,7 @@
       </c>
     </row>
     <row r="432" spans="2:5" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B432" s="78" t="s">
+      <c r="B432" s="77" t="s">
         <v>1277</v>
       </c>
       <c r="C432" s="9" t="s">
@@ -11725,7 +11751,7 @@
       </c>
     </row>
     <row r="433" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B433" s="78">
+      <c r="B433" s="77">
         <v>13431</v>
       </c>
       <c r="C433" s="6" t="s">
@@ -11739,7 +11765,7 @@
       </c>
     </row>
     <row r="434" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B434" s="78">
+      <c r="B434" s="77">
         <v>11970</v>
       </c>
       <c r="C434" s="6" t="s">
@@ -11748,10 +11774,12 @@
       <c r="D434" s="10" t="s">
         <v>1134</v>
       </c>
-      <c r="E434" s="67"/>
+      <c r="E434" s="67" t="s">
+        <v>1313</v>
+      </c>
     </row>
     <row r="435" spans="2:5" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B435" s="78">
+      <c r="B435" s="77">
         <v>29136</v>
       </c>
       <c r="C435" s="6" t="s">
@@ -11765,7 +11793,7 @@
       </c>
     </row>
     <row r="436" spans="2:5" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B436" s="80" t="s">
+      <c r="B436" s="79" t="s">
         <v>1278</v>
       </c>
       <c r="C436" s="6" t="s">
@@ -11779,7 +11807,7 @@
       </c>
     </row>
     <row r="437" spans="2:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B437" s="80" t="s">
+      <c r="B437" s="79" t="s">
         <v>1279</v>
       </c>
       <c r="C437" s="21" t="s">
@@ -11793,7 +11821,7 @@
       </c>
     </row>
     <row r="438" spans="2:5" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B438" s="83">
+      <c r="B438" s="82">
         <v>13797</v>
       </c>
       <c r="C438" s="60" t="s">
@@ -11807,7 +11835,7 @@
       </c>
     </row>
     <row r="439" spans="2:5" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="B439" s="78">
+      <c r="B439" s="77">
         <v>23660</v>
       </c>
       <c r="C439" s="20" t="s">
@@ -11821,7 +11849,7 @@
       </c>
     </row>
     <row r="440" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B440" s="78">
+      <c r="B440" s="77">
         <v>2475</v>
       </c>
       <c r="C440" s="6" t="s">
@@ -11835,7 +11863,7 @@
       </c>
     </row>
     <row r="441" spans="2:5" ht="174" x14ac:dyDescent="0.35">
-      <c r="B441" s="78">
+      <c r="B441" s="77">
         <v>1015</v>
       </c>
       <c r="C441" s="6" t="s">
@@ -11849,143 +11877,245 @@
       </c>
     </row>
     <row r="442" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B442" s="78" t="s">
+      <c r="B442" s="77" t="s">
         <v>1280</v>
       </c>
-      <c r="C442" s="6"/>
-      <c r="D442" s="42"/>
-      <c r="E442" s="29"/>
+      <c r="C442" s="6" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D442" s="42" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E442" s="42" t="s">
+        <v>1311</v>
+      </c>
     </row>
     <row r="443" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B443" s="85" t="s">
+      <c r="B443" s="84" t="s">
         <v>1281</v>
       </c>
-      <c r="C443" s="6"/>
-      <c r="D443" s="10"/>
-      <c r="E443" s="9"/>
+      <c r="C443" s="6" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D443" s="42" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E443" s="42" t="s">
+        <v>1311</v>
+      </c>
     </row>
     <row r="444" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B444" s="85" t="s">
+      <c r="B444" s="84" t="s">
         <v>1282</v>
       </c>
-      <c r="C444" s="6"/>
-      <c r="D444" s="10"/>
-      <c r="E444" s="9"/>
+      <c r="C444" s="6" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D444" s="42" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E444" s="42" t="s">
+        <v>1311</v>
+      </c>
     </row>
     <row r="445" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B445" s="85" t="s">
+      <c r="B445" s="84" t="s">
         <v>1283</v>
       </c>
-      <c r="C445" s="6"/>
-      <c r="D445" s="10"/>
-      <c r="E445" s="9"/>
+      <c r="C445" s="6" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D445" s="42" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E445" s="42" t="s">
+        <v>1311</v>
+      </c>
     </row>
     <row r="446" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B446" s="85" t="s">
+      <c r="B446" s="84" t="s">
         <v>1284</v>
       </c>
-      <c r="C446" s="6"/>
-      <c r="D446" s="10"/>
-      <c r="E446" s="9"/>
+      <c r="C446" s="6" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D446" s="42" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E446" s="42" t="s">
+        <v>1311</v>
+      </c>
     </row>
     <row r="447" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B447" s="85" t="s">
+      <c r="B447" s="84" t="s">
         <v>1285</v>
       </c>
-      <c r="C447" s="6"/>
-      <c r="D447" s="10"/>
-      <c r="E447" s="9"/>
+      <c r="C447" s="6" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D447" s="42" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E447" s="42" t="s">
+        <v>1311</v>
+      </c>
     </row>
     <row r="448" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B448" s="85" t="s">
+      <c r="B448" s="84" t="s">
         <v>1286</v>
       </c>
-      <c r="C448" s="6"/>
-      <c r="D448" s="10"/>
-      <c r="E448" s="9"/>
+      <c r="C448" s="6" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D448" s="42" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E448" s="42" t="s">
+        <v>1311</v>
+      </c>
     </row>
     <row r="449" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B449" s="85" t="s">
+      <c r="B449" s="84" t="s">
         <v>1287</v>
       </c>
-      <c r="C449" s="6"/>
-      <c r="D449" s="11"/>
-      <c r="E449" s="34"/>
+      <c r="C449" s="6" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D449" s="42" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E449" s="42" t="s">
+        <v>1311</v>
+      </c>
     </row>
     <row r="450" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B450" s="85" t="s">
+      <c r="B450" s="84" t="s">
         <v>1288</v>
       </c>
-      <c r="C450" s="6"/>
-      <c r="D450" s="11"/>
-      <c r="E450" s="34"/>
+      <c r="C450" s="6" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D450" s="42" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E450" s="42" t="s">
+        <v>1311</v>
+      </c>
     </row>
     <row r="451" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B451" s="85" t="s">
+      <c r="B451" s="84" t="s">
         <v>1289</v>
       </c>
-      <c r="C451" s="6"/>
-      <c r="D451" s="11"/>
-      <c r="E451" s="34"/>
+      <c r="C451" s="6" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D451" s="42" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E451" s="42" t="s">
+        <v>1311</v>
+      </c>
     </row>
     <row r="452" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B452" s="85" t="s">
+      <c r="B452" s="84" t="s">
         <v>1290</v>
       </c>
-      <c r="C452" s="6"/>
-      <c r="D452" s="11"/>
-      <c r="E452" s="75"/>
+      <c r="C452" s="6" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D452" s="42" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E452" s="42" t="s">
+        <v>1311</v>
+      </c>
     </row>
     <row r="453" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B453" s="85" t="s">
+      <c r="B453" s="84" t="s">
         <v>1291</v>
       </c>
-      <c r="C453" s="6"/>
-      <c r="D453" s="11"/>
-      <c r="E453" s="34"/>
+      <c r="C453" s="6" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D453" s="42" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E453" s="42" t="s">
+        <v>1311</v>
+      </c>
     </row>
     <row r="454" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B454" s="85" t="s">
+      <c r="B454" s="84" t="s">
         <v>1292</v>
       </c>
-      <c r="C454" s="6"/>
-      <c r="D454" s="11"/>
-      <c r="E454" s="34"/>
+      <c r="C454" s="6" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D454" s="42" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E454" s="42" t="s">
+        <v>1311</v>
+      </c>
     </row>
     <row r="455" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B455" s="85" t="s">
+      <c r="B455" s="84" t="s">
         <v>1293</v>
       </c>
-      <c r="C455" s="6"/>
-      <c r="D455" s="11"/>
-      <c r="E455" s="34"/>
+      <c r="C455" s="6" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D455" s="42" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E455" s="42" t="s">
+        <v>1311</v>
+      </c>
     </row>
     <row r="456" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B456" s="85" t="s">
+      <c r="B456" s="84" t="s">
         <v>1294</v>
       </c>
-      <c r="C456" s="6"/>
-      <c r="D456" s="11"/>
-      <c r="E456" s="34"/>
+      <c r="C456" s="6" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D456" s="42" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E456" s="42" t="s">
+        <v>1311</v>
+      </c>
     </row>
     <row r="457" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B457" s="85" t="s">
+      <c r="B457" s="84" t="s">
         <v>1295</v>
       </c>
-      <c r="C457" s="6"/>
-      <c r="D457" s="11"/>
-      <c r="E457" s="34"/>
+      <c r="C457" s="6" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D457" s="42" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E457" s="42" t="s">
+        <v>1311</v>
+      </c>
     </row>
     <row r="458" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B458" s="85" t="s">
+      <c r="B458" s="84" t="s">
         <v>1296</v>
       </c>
-      <c r="C458" s="6"/>
-      <c r="D458" s="11"/>
-      <c r="E458" s="34"/>
+      <c r="C458" s="6" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D458" s="42" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E458" s="42" t="s">
+        <v>1311</v>
+      </c>
     </row>
     <row r="459" spans="2:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="B459" s="78">
+      <c r="B459" s="77">
         <v>27332</v>
       </c>
       <c r="C459" s="6" t="s">
@@ -11999,7 +12129,7 @@
       </c>
     </row>
     <row r="460" spans="2:5" ht="174" x14ac:dyDescent="0.35">
-      <c r="B460" s="78">
+      <c r="B460" s="77">
         <v>27698</v>
       </c>
       <c r="C460" s="6" t="s">
@@ -12016,7 +12146,9 @@
       <c r="B461" s="4"/>
       <c r="C461" s="4"/>
       <c r="D461" s="16"/>
-      <c r="E461" s="1"/>
+      <c r="E461" s="42" t="s">
+        <v>1311</v>
+      </c>
     </row>
     <row r="462" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B462" s="4"/>
@@ -12590,6 +12722,7 @@
     <row r="589" ht="14.5" x14ac:dyDescent="0.35"/>
     <row r="590" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
+  <autoFilter ref="A1:E461" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{8C91551C-DB86-4077-932B-36C4787E25F5}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{390D1E94-1DB3-48A6-B115-E2FF40306FFB}"/>

--- a/Today in history.xlsx
+++ b/Today in history.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\kushan\ICP\suraj_work\apis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D7C14A-CFF6-4BEF-8118-A3F719D3B9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFA1F90-529D-4E9E-8357-C4E50173B090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="1314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="1313">
   <si>
     <t>Today in History - Date(DD-MMM-YYYY)</t>
   </si>
@@ -4180,16 +4180,13 @@
     <t>26-Sep-1820</t>
   </si>
   <si>
-    <t>"Not  Available"</t>
-  </si>
-  <si>
     <t>Not  Available</t>
   </si>
   <si>
     <t xml:space="preserve">    "Not Avialble"</t>
   </si>
   <si>
-    <t xml:space="preserve"> "Not Avialble"</t>
+    <t>Not Avialble</t>
   </si>
 </sst>
 </file>
@@ -4439,7 +4436,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4686,6 +4683,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5025,8 +5025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H590"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6327,7 +6327,7 @@
         <v>219</v>
       </c>
       <c r="E76" s="85" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="F76" s="18"/>
       <c r="G76" s="1"/>
@@ -9704,8 +9704,8 @@
       <c r="D286" s="50" t="s">
         <v>781</v>
       </c>
-      <c r="E286" s="29" t="s">
-        <v>1313</v>
+      <c r="E286" s="85" t="s">
+        <v>1312</v>
       </c>
     </row>
     <row r="287" spans="2:5" ht="174" x14ac:dyDescent="0.35">
@@ -11664,7 +11664,9 @@
       <c r="D426" s="73" t="s">
         <v>1120</v>
       </c>
-      <c r="E426" s="9"/>
+      <c r="E426" s="9" t="s">
+        <v>1310</v>
+      </c>
     </row>
     <row r="427" spans="2:5" ht="170.5" x14ac:dyDescent="0.35">
       <c r="B427" s="82" t="s">
@@ -11774,8 +11776,8 @@
       <c r="D434" s="10" t="s">
         <v>1134</v>
       </c>
-      <c r="E434" s="67" t="s">
-        <v>1313</v>
+      <c r="E434" s="86" t="s">
+        <v>1310</v>
       </c>
     </row>
     <row r="435" spans="2:5" ht="159.5" x14ac:dyDescent="0.35">
@@ -11884,10 +11886,10 @@
         <v>1310</v>
       </c>
       <c r="D442" s="42" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E442" s="42" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="443" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -11898,10 +11900,10 @@
         <v>1310</v>
       </c>
       <c r="D443" s="42" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E443" s="42" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="444" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -11912,10 +11914,10 @@
         <v>1310</v>
       </c>
       <c r="D444" s="42" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E444" s="42" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="445" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -11926,10 +11928,10 @@
         <v>1310</v>
       </c>
       <c r="D445" s="42" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E445" s="42" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="446" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -11940,10 +11942,10 @@
         <v>1310</v>
       </c>
       <c r="D446" s="42" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E446" s="42" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="447" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -11954,10 +11956,10 @@
         <v>1310</v>
       </c>
       <c r="D447" s="42" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E447" s="42" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="448" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -11968,10 +11970,10 @@
         <v>1310</v>
       </c>
       <c r="D448" s="42" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E448" s="42" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="449" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -11982,10 +11984,10 @@
         <v>1310</v>
       </c>
       <c r="D449" s="42" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E449" s="42" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="450" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -11996,10 +11998,10 @@
         <v>1310</v>
       </c>
       <c r="D450" s="42" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E450" s="42" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="451" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -12010,10 +12012,10 @@
         <v>1310</v>
       </c>
       <c r="D451" s="42" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E451" s="42" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="452" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -12024,10 +12026,10 @@
         <v>1310</v>
       </c>
       <c r="D452" s="42" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E452" s="42" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="453" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -12038,10 +12040,10 @@
         <v>1310</v>
       </c>
       <c r="D453" s="42" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E453" s="42" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="454" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -12052,10 +12054,10 @@
         <v>1310</v>
       </c>
       <c r="D454" s="42" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E454" s="42" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="455" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -12066,10 +12068,10 @@
         <v>1310</v>
       </c>
       <c r="D455" s="42" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E455" s="42" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="456" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -12080,10 +12082,10 @@
         <v>1310</v>
       </c>
       <c r="D456" s="42" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E456" s="42" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="457" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -12094,10 +12096,10 @@
         <v>1310</v>
       </c>
       <c r="D457" s="42" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E457" s="42" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="458" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -12108,10 +12110,10 @@
         <v>1310</v>
       </c>
       <c r="D458" s="42" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E458" s="42" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="459" spans="2:5" ht="145" x14ac:dyDescent="0.35">
@@ -12146,9 +12148,7 @@
       <c r="B461" s="4"/>
       <c r="C461" s="4"/>
       <c r="D461" s="16"/>
-      <c r="E461" s="42" t="s">
-        <v>1311</v>
-      </c>
+      <c r="E461" s="42"/>
     </row>
     <row r="462" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B462" s="4"/>
@@ -13167,20 +13167,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="aa147850-eca0-4e5b-a144-6326bb449f70" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="aa147850-eca0-4e5b-a144-6326bb449f70" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13378,19 +13378,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89B6ED00-A833-4621-9546-0209CFBC668C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A24689F7-F6B8-4DA0-BD39-3BCEEDC580ED}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="aa147850-eca0-4e5b-a144-6326bb449f70"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89B6ED00-A833-4621-9546-0209CFBC668C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
